--- a/code/数据库设计/详细数据.xlsx
+++ b/code/数据库设计/详细数据.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8353985-47FF-4D25-93A6-20FF3778434F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="city" sheetId="1" r:id="rId1"/>
-    <sheet name="battle" sheetId="2" r:id="rId2"/>
-    <sheet name="army" sheetId="3" r:id="rId3"/>
-    <sheet name="time" sheetId="4" r:id="rId4"/>
-    <sheet name="faction" sheetId="5" r:id="rId5"/>
-    <sheet name="player" sheetId="6" r:id="rId6"/>
-    <sheet name="person" sheetId="7" r:id="rId7"/>
+    <sheet name="中原城池" sheetId="8" r:id="rId2"/>
+    <sheet name="battle" sheetId="2" r:id="rId3"/>
+    <sheet name="army" sheetId="3" r:id="rId4"/>
+    <sheet name="time" sheetId="4" r:id="rId5"/>
+    <sheet name="faction" sheetId="5" r:id="rId6"/>
+    <sheet name="player" sheetId="6" r:id="rId7"/>
+    <sheet name="person" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">city!$A$1:$J$55</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="344">
   <si>
     <t>武威</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -184,10 +184,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>弘农</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>广陵</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -216,10 +212,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>会稽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>北平</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -232,15 +224,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>庐江</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>蓟县</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cityID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1091,13 +1075,138 @@
   </si>
   <si>
     <t>personID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>琅琊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄陵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会稽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南皮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平原</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>济北</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下邳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘陵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寿春</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>庐江</t>
+  </si>
+  <si>
+    <t>庐江</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钜鹿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>濮阳</t>
+  </si>
+  <si>
+    <t>焦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈留</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋阳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上棠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>许昌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汝南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江夏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛阳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新野</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弘农</t>
+  </si>
+  <si>
+    <t>弘农</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江陵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长安</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上庸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永安</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -1208,7 +1317,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2" xr:uid="{D326B524-62E1-42C1-8831-9428205D2928}"/>
+    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="输出" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1486,60 +1595,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1568,12 +1677,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -1597,7 +1706,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1626,7 +1735,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1655,12 +1764,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -1684,7 +1793,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1713,7 +1822,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1742,7 +1851,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1771,12 +1880,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>339</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -1800,12 +1909,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -1829,7 +1938,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1858,7 +1967,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1887,12 +1996,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -1916,7 +2025,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1945,7 +2054,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1974,7 +2083,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2003,12 +2112,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18">
         <v>100</v>
@@ -2032,7 +2141,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2061,7 +2170,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2090,7 +2199,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2119,7 +2228,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2148,12 +2257,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>324</v>
       </c>
       <c r="C23">
         <v>100</v>
@@ -2177,7 +2286,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2206,12 +2315,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25">
         <v>100</v>
@@ -2235,12 +2344,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>100</v>
@@ -2264,12 +2373,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27">
         <v>100</v>
@@ -2293,7 +2402,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2322,7 +2431,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2351,7 +2460,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2380,7 +2489,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2409,7 +2518,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2438,7 +2547,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2467,7 +2576,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2496,12 +2605,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35">
         <v>100</v>
@@ -2525,7 +2634,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2554,7 +2663,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2583,7 +2692,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2612,7 +2721,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2641,7 +2750,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2670,7 +2779,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2699,7 +2808,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2728,7 +2837,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2757,7 +2866,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2786,12 +2895,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45">
         <v>100</v>
@@ -2815,7 +2924,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2844,12 +2953,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C47">
         <v>100</v>
@@ -2873,7 +2982,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2902,7 +3011,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2931,7 +3040,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2960,7 +3069,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2989,12 +3098,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C52">
         <v>100</v>
@@ -3019,7 +3128,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J55" xr:uid="{4154AD3B-87E6-4E26-AA8C-A81A51E616F1}">
+  <autoFilter ref="A1:J55">
     <sortState ref="A2:J55">
       <sortCondition ref="B1:B55"/>
     </sortState>
@@ -3031,41 +3140,1114 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7E07B0-983D-4F95-9437-82A55163DA24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
+      <c r="I2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>1000</v>
+      </c>
+      <c r="I3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>1000</v>
+      </c>
+      <c r="I4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>1000</v>
+      </c>
+      <c r="I5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>1000</v>
+      </c>
+      <c r="I6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>1000</v>
+      </c>
+      <c r="I7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>1000</v>
+      </c>
+      <c r="I8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>1000</v>
+      </c>
+      <c r="I9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>1000</v>
+      </c>
+      <c r="I10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>1000</v>
+      </c>
+      <c r="I11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>1000</v>
+      </c>
+      <c r="I12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>1000</v>
+      </c>
+      <c r="I13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>1000</v>
+      </c>
+      <c r="I14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>1000</v>
+      </c>
+      <c r="I15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>1000</v>
+      </c>
+      <c r="I16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>325</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>1000</v>
+      </c>
+      <c r="I17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>326</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>1000</v>
+      </c>
+      <c r="I18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>327</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>1000</v>
+      </c>
+      <c r="I19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>328</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>1000</v>
+      </c>
+      <c r="I20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>329</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>1000</v>
+      </c>
+      <c r="I21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>330</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>1000</v>
+      </c>
+      <c r="I22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>331</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>1000</v>
+      </c>
+      <c r="I23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>1000</v>
+      </c>
+      <c r="I24">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>332</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>1000</v>
+      </c>
+      <c r="I25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>333</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <v>1000</v>
+      </c>
+      <c r="I26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>334</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <v>1000</v>
+      </c>
+      <c r="I27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>335</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <v>1000</v>
+      </c>
+      <c r="I28">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>336</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29">
+        <v>1000</v>
+      </c>
+      <c r="I29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>337</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <v>1000</v>
+      </c>
+      <c r="I30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>338</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <v>1000</v>
+      </c>
+      <c r="I31">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>100</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>1000</v>
+      </c>
+      <c r="I32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>340</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>100</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+      <c r="H33">
+        <v>1000</v>
+      </c>
+      <c r="I33">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>341</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>100</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>1000</v>
+      </c>
+      <c r="I34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>342</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>100</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>1000</v>
+      </c>
+      <c r="I35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>343</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>100</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+      <c r="H36">
+        <v>1000</v>
+      </c>
+      <c r="I36">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3074,46 +4256,46 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F995276-6AE7-488C-B558-E16B124904EF}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H1" s="3"/>
     </row>
@@ -3124,29 +4306,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D16037-C9AC-4312-94BB-9DF6C744EA1E}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -3158,42 +4340,42 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E54C7A-950A-4746-AC18-3F62E6F9BE41}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3202,12 +4384,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3216,12 +4398,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3230,12 +4412,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -3244,12 +4426,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3258,12 +4440,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -3272,12 +4454,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -3286,12 +4468,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -3300,12 +4482,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C10">
         <v>108</v>
@@ -3314,12 +4496,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C11">
         <v>192</v>
@@ -3335,28 +4517,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD2D77D-498D-43DB-95AB-DF44679F9CB0}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -3368,67 +4550,67 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238C045B-022E-40E9-AAA2-2F93D3F73963}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="4"/>
+    <col min="6" max="6" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C2">
         <v>155</v>
@@ -3454,12 +4636,12 @@
       </c>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C3">
         <v>161</v>
@@ -3485,12 +4667,12 @@
       </c>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C4">
         <v>155</v>
@@ -3516,12 +4698,12 @@
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C5">
         <v>135</v>
@@ -3547,12 +4729,12 @@
       </c>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C6">
         <v>139</v>
@@ -3578,12 +4760,12 @@
       </c>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C7">
         <v>156</v>
@@ -3609,12 +4791,12 @@
       </c>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C8">
         <v>153</v>
@@ -3640,12 +4822,12 @@
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C9">
         <v>132</v>
@@ -3671,12 +4853,12 @@
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C10">
         <v>132</v>
@@ -3702,12 +4884,12 @@
       </c>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C11">
         <v>152</v>
@@ -3733,12 +4915,12 @@
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C12">
         <v>169</v>
@@ -3764,12 +4946,12 @@
       </c>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C13">
         <v>166</v>
@@ -3795,12 +4977,12 @@
       </c>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C14">
         <v>155</v>
@@ -3826,12 +5008,12 @@
       </c>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C15">
         <v>168</v>
@@ -3857,12 +5039,12 @@
       </c>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C16">
         <v>151</v>
@@ -3888,12 +5070,12 @@
       </c>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C17">
         <v>169</v>
@@ -3919,12 +5101,12 @@
       </c>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C18">
         <v>168</v>
@@ -3950,12 +5132,12 @@
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C19">
         <v>163</v>
@@ -3981,12 +5163,12 @@
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C20">
         <v>164</v>
@@ -4012,12 +5194,12 @@
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C21">
         <v>169</v>
@@ -4043,12 +5225,12 @@
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C22">
         <v>154</v>
@@ -4074,12 +5256,12 @@
       </c>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C23">
         <v>132</v>
@@ -4105,12 +5287,12 @@
       </c>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C24">
         <v>161</v>
@@ -4136,12 +5318,12 @@
       </c>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C25">
         <v>165</v>
@@ -4167,12 +5349,12 @@
       </c>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C26">
         <v>157</v>
@@ -4198,12 +5380,12 @@
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C27">
         <v>160</v>
@@ -4229,12 +5411,12 @@
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C28">
         <v>167</v>
@@ -4260,12 +5442,12 @@
       </c>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C29">
         <v>168</v>
@@ -4291,12 +5473,12 @@
       </c>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C30">
         <v>151</v>
@@ -4322,12 +5504,12 @@
       </c>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C31">
         <v>169</v>
@@ -4353,12 +5535,12 @@
       </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C32">
         <v>141</v>
@@ -4384,12 +5566,12 @@
       </c>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C33">
         <v>145</v>
@@ -4415,12 +5597,12 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C34">
         <v>146</v>
@@ -4446,12 +5628,12 @@
       </c>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C35">
         <v>163</v>
@@ -4477,12 +5659,12 @@
       </c>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C36">
         <v>156</v>
@@ -4508,12 +5690,12 @@
       </c>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C37">
         <v>147</v>
@@ -4539,12 +5721,12 @@
       </c>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C38">
         <v>160</v>
@@ -4570,12 +5752,12 @@
       </c>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C39">
         <v>137</v>
@@ -4601,12 +5783,12 @@
       </c>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C40">
         <v>154</v>
@@ -4632,12 +5814,12 @@
       </c>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C41">
         <v>168</v>
@@ -4663,12 +5845,12 @@
       </c>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C42">
         <v>149</v>
@@ -4694,12 +5876,12 @@
       </c>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C43">
         <v>169</v>
@@ -4725,12 +5907,12 @@
       </c>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C44">
         <v>156</v>
@@ -4756,12 +5938,12 @@
       </c>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C45">
         <v>153</v>
@@ -4787,12 +5969,12 @@
       </c>
       <c r="K45" s="5"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C46">
         <v>153</v>
@@ -4818,12 +6000,12 @@
       </c>
       <c r="K46" s="5"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C47">
         <v>153</v>
@@ -4849,12 +6031,12 @@
       </c>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C48">
         <v>162</v>
@@ -4880,12 +6062,12 @@
       </c>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C49">
         <v>163</v>
@@ -4911,12 +6093,12 @@
       </c>
       <c r="K49" s="5"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C50">
         <v>168</v>
@@ -4942,12 +6124,12 @@
       </c>
       <c r="K50" s="5"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C51">
         <v>159</v>
@@ -4973,12 +6155,12 @@
       </c>
       <c r="K51" s="5"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C52">
         <v>145</v>
@@ -5004,12 +6186,12 @@
       </c>
       <c r="K52" s="5"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C53">
         <v>158</v>
@@ -5035,12 +6217,12 @@
       </c>
       <c r="K53" s="5"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C54">
         <v>155</v>
@@ -5066,12 +6248,12 @@
       </c>
       <c r="K54" s="5"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C55">
         <v>158</v>
@@ -5097,12 +6279,12 @@
       </c>
       <c r="K55" s="5"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C56">
         <v>160</v>
@@ -5128,12 +6310,12 @@
       </c>
       <c r="K56" s="5"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C57">
         <v>164</v>
@@ -5159,12 +6341,12 @@
       </c>
       <c r="K57" s="5"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C58">
         <v>158</v>
@@ -5190,12 +6372,12 @@
       </c>
       <c r="K58" s="5"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C59">
         <v>162</v>
@@ -5221,12 +6403,12 @@
       </c>
       <c r="K59" s="5"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C60">
         <v>160</v>
@@ -5252,12 +6434,12 @@
       </c>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C61">
         <v>146</v>
@@ -5283,12 +6465,12 @@
       </c>
       <c r="K61" s="5"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C62">
         <v>155</v>
@@ -5314,12 +6496,12 @@
       </c>
       <c r="K62" s="5"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C63">
         <v>156</v>
@@ -5345,12 +6527,12 @@
       </c>
       <c r="K63" s="5"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C64">
         <v>149</v>
@@ -5376,12 +6558,12 @@
       </c>
       <c r="K64" s="5"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C65">
         <v>164</v>
@@ -5407,12 +6589,12 @@
       </c>
       <c r="K65" s="5"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C66">
         <v>154</v>
@@ -5438,12 +6620,12 @@
       </c>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C67">
         <v>163</v>
@@ -5469,12 +6651,12 @@
       </c>
       <c r="K67" s="5"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C68">
         <v>159</v>
@@ -5500,12 +6682,12 @@
       </c>
       <c r="K68" s="5"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C69">
         <v>163</v>
@@ -5531,12 +6713,12 @@
       </c>
       <c r="K69" s="5"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C70">
         <v>155</v>
@@ -5562,12 +6744,12 @@
       </c>
       <c r="K70" s="5"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C71">
         <v>156</v>
@@ -5593,12 +6775,12 @@
       </c>
       <c r="K71" s="5"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C72">
         <v>161</v>
@@ -5624,12 +6806,12 @@
       </c>
       <c r="K72" s="5"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C73">
         <v>158</v>
@@ -5655,12 +6837,12 @@
       </c>
       <c r="K73" s="5"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C74">
         <v>146</v>
@@ -5686,12 +6868,12 @@
       </c>
       <c r="K74" s="5"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C75">
         <v>157</v>
@@ -5717,12 +6899,12 @@
       </c>
       <c r="K75" s="5"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C76">
         <v>155</v>
@@ -5748,12 +6930,12 @@
       </c>
       <c r="K76" s="5"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C77">
         <v>132</v>
@@ -5779,12 +6961,12 @@
       </c>
       <c r="K77" s="5"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C78">
         <v>154</v>
@@ -5810,12 +6992,12 @@
       </c>
       <c r="K78" s="5"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C79">
         <v>167</v>
@@ -5841,12 +7023,12 @@
       </c>
       <c r="K79" s="5"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C80">
         <v>148</v>
@@ -5872,12 +7054,12 @@
       </c>
       <c r="K80" s="5"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C81">
         <v>148</v>
@@ -5903,12 +7085,12 @@
       </c>
       <c r="K81" s="5"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C82">
         <v>155</v>
@@ -5934,12 +7116,12 @@
       </c>
       <c r="K82" s="5"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C83">
         <v>147</v>
@@ -5965,12 +7147,12 @@
       </c>
       <c r="K83" s="5"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C84">
         <v>167</v>
@@ -5996,12 +7178,12 @@
       </c>
       <c r="K84" s="5"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C85">
         <v>168</v>
@@ -6027,12 +7209,12 @@
       </c>
       <c r="K85" s="5"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C86">
         <v>159</v>
@@ -6058,12 +7240,12 @@
       </c>
       <c r="K86" s="5"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C87">
         <v>155</v>
@@ -6089,12 +7271,12 @@
       </c>
       <c r="K87" s="5"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C88">
         <v>156</v>
@@ -6120,12 +7302,12 @@
       </c>
       <c r="K88" s="5"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C89">
         <v>153</v>
@@ -6151,12 +7333,12 @@
       </c>
       <c r="K89" s="5"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C90">
         <v>151</v>
@@ -6182,12 +7364,12 @@
       </c>
       <c r="K90" s="5"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C91">
         <v>155</v>
@@ -6213,12 +7395,12 @@
       </c>
       <c r="K91" s="5"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C92">
         <v>157</v>
@@ -6244,12 +7426,12 @@
       </c>
       <c r="K92" s="5"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C93">
         <v>159</v>
@@ -6275,12 +7457,12 @@
       </c>
       <c r="K93" s="5"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C94">
         <v>163</v>
@@ -6306,12 +7488,12 @@
       </c>
       <c r="K94" s="5"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C95">
         <v>160</v>
@@ -6337,12 +7519,12 @@
       </c>
       <c r="K95" s="5"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C96">
         <v>148</v>
@@ -6368,12 +7550,12 @@
       </c>
       <c r="K96" s="5"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C97">
         <v>150</v>
@@ -6399,12 +7581,12 @@
       </c>
       <c r="K97" s="5"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C98">
         <v>156</v>
@@ -6430,12 +7612,12 @@
       </c>
       <c r="K98" s="5"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C99">
         <v>168</v>
@@ -6461,12 +7643,12 @@
       </c>
       <c r="K99" s="5"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C100">
         <v>169</v>
@@ -6492,12 +7674,12 @@
       </c>
       <c r="K100" s="5"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C101">
         <v>165</v>
@@ -6523,12 +7705,12 @@
       </c>
       <c r="K101" s="5"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C102">
         <v>142</v>
@@ -6554,12 +7736,12 @@
       </c>
       <c r="K102" s="5"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C103">
         <v>147</v>
@@ -6585,12 +7767,12 @@
       </c>
       <c r="K103" s="5"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C104">
         <v>163</v>
@@ -6616,12 +7798,12 @@
       </c>
       <c r="K104" s="5"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C105">
         <v>168</v>
@@ -6647,12 +7829,12 @@
       </c>
       <c r="K105" s="5"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C106">
         <v>165</v>
@@ -6678,12 +7860,12 @@
       </c>
       <c r="K106" s="5"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C107">
         <v>169</v>
@@ -6709,12 +7891,12 @@
       </c>
       <c r="K107" s="5"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C108">
         <v>156</v>
@@ -6740,12 +7922,12 @@
       </c>
       <c r="K108" s="5"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C109">
         <v>145</v>
@@ -6771,12 +7953,12 @@
       </c>
       <c r="K109" s="5"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C110">
         <v>162</v>
@@ -6802,12 +7984,12 @@
       </c>
       <c r="K110" s="5"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C111">
         <v>139</v>
@@ -6833,12 +8015,12 @@
       </c>
       <c r="K111" s="5"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C112">
         <v>156</v>
@@ -6864,12 +8046,12 @@
       </c>
       <c r="K112" s="5"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C113">
         <v>161</v>
@@ -6895,12 +8077,12 @@
       </c>
       <c r="K113" s="5"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C114">
         <v>169</v>
@@ -6926,12 +8108,12 @@
       </c>
       <c r="K114" s="5"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C115">
         <v>162</v>
@@ -6957,12 +8139,12 @@
       </c>
       <c r="K115" s="5"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C116">
         <v>169</v>
@@ -6988,12 +8170,12 @@
       </c>
       <c r="K116" s="5"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C117">
         <v>164</v>
@@ -7019,12 +8201,12 @@
       </c>
       <c r="K117" s="5"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C118">
         <v>161</v>
@@ -7050,12 +8232,12 @@
       </c>
       <c r="K118" s="5"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C119">
         <v>169</v>
@@ -7081,12 +8263,12 @@
       </c>
       <c r="K119" s="5"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C120">
         <v>165</v>
@@ -7112,12 +8294,12 @@
       </c>
       <c r="K120" s="5"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C121">
         <v>162</v>
@@ -7143,12 +8325,12 @@
       </c>
       <c r="K121" s="5"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C122">
         <v>159</v>
@@ -7174,12 +8356,12 @@
       </c>
       <c r="K122" s="5"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C123">
         <v>163</v>
@@ -7205,12 +8387,12 @@
       </c>
       <c r="K123" s="5"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C124">
         <v>153</v>
@@ -7236,12 +8418,12 @@
       </c>
       <c r="K124" s="5"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C125">
         <v>169</v>
@@ -7267,12 +8449,12 @@
       </c>
       <c r="K125" s="5"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C126">
         <v>150</v>
@@ -7298,12 +8480,12 @@
       </c>
       <c r="K126" s="5"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C127">
         <v>146</v>
@@ -7329,12 +8511,12 @@
       </c>
       <c r="K127" s="5"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C128">
         <v>167</v>
@@ -7360,12 +8542,12 @@
       </c>
       <c r="K128" s="5"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C129">
         <v>156</v>
@@ -7391,12 +8573,12 @@
       </c>
       <c r="K129" s="5"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C130">
         <v>157</v>
@@ -7422,12 +8604,12 @@
       </c>
       <c r="K130" s="5"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C131">
         <v>164</v>
@@ -7453,12 +8635,12 @@
       </c>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C132">
         <v>156</v>
@@ -7484,12 +8666,12 @@
       </c>
       <c r="K132" s="5"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C133">
         <v>165</v>
@@ -7515,12 +8697,12 @@
       </c>
       <c r="K133" s="5"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C134">
         <v>157</v>
@@ -7546,12 +8728,12 @@
       </c>
       <c r="K134" s="5"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C135">
         <v>166</v>
@@ -7577,12 +8759,12 @@
       </c>
       <c r="K135" s="5"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C136">
         <v>169</v>
@@ -7608,12 +8790,12 @@
       </c>
       <c r="K136" s="5"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C137">
         <v>162</v>
@@ -7639,12 +8821,12 @@
       </c>
       <c r="K137" s="5"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C138">
         <v>154</v>
@@ -7670,12 +8852,12 @@
       </c>
       <c r="K138" s="5"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C139">
         <v>150</v>
@@ -7701,12 +8883,12 @@
       </c>
       <c r="K139" s="5"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C140">
         <v>162</v>
@@ -7732,12 +8914,12 @@
       </c>
       <c r="K140" s="5"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C141">
         <v>162</v>
@@ -7763,12 +8945,12 @@
       </c>
       <c r="K141" s="5"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C142">
         <v>163</v>
@@ -7794,12 +8976,12 @@
       </c>
       <c r="K142" s="5"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C143">
         <v>168</v>
@@ -7825,12 +9007,12 @@
       </c>
       <c r="K143" s="5"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C144">
         <v>137</v>
@@ -7856,12 +9038,12 @@
       </c>
       <c r="K144" s="5"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C145">
         <v>152</v>
@@ -7887,12 +9069,12 @@
       </c>
       <c r="K145" s="5"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C146">
         <v>156</v>
@@ -7918,12 +9100,12 @@
       </c>
       <c r="K146" s="5"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C147">
         <v>151</v>
@@ -7949,12 +9131,12 @@
       </c>
       <c r="K147" s="5"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C148">
         <v>161</v>
@@ -7980,12 +9162,12 @@
       </c>
       <c r="K148" s="5"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C149">
         <v>151</v>
@@ -8011,12 +9193,12 @@
       </c>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C150">
         <v>166</v>
@@ -8042,12 +9224,12 @@
       </c>
       <c r="K150" s="5"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C151">
         <v>163</v>
@@ -8073,12 +9255,12 @@
       </c>
       <c r="K151" s="5"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C152">
         <v>157</v>
@@ -8104,12 +9286,12 @@
       </c>
       <c r="K152" s="5"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C153">
         <v>157</v>
@@ -8135,12 +9317,12 @@
       </c>
       <c r="K153" s="5"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C154">
         <v>163</v>
@@ -8166,12 +9348,12 @@
       </c>
       <c r="K154" s="5"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C155">
         <v>167</v>
@@ -8197,12 +9379,12 @@
       </c>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C156">
         <v>165</v>
@@ -8228,12 +9410,12 @@
       </c>
       <c r="K156" s="5"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C157">
         <v>151</v>
@@ -8259,12 +9441,12 @@
       </c>
       <c r="K157" s="5"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C158">
         <v>169</v>
@@ -8290,12 +9472,12 @@
       </c>
       <c r="K158" s="5"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C159">
         <v>147</v>
@@ -8321,12 +9503,12 @@
       </c>
       <c r="K159" s="5"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C160">
         <v>155</v>
@@ -8352,12 +9534,12 @@
       </c>
       <c r="K160" s="5"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C161">
         <v>152</v>
@@ -8383,12 +9565,12 @@
       </c>
       <c r="K161" s="5"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C162">
         <v>155</v>
@@ -8414,12 +9596,12 @@
       </c>
       <c r="K162" s="5"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C163">
         <v>163</v>
@@ -8445,12 +9627,12 @@
       </c>
       <c r="K163" s="5"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C164">
         <v>157</v>
@@ -8476,12 +9658,12 @@
       </c>
       <c r="K164" s="5"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C165">
         <v>142</v>
@@ -8507,12 +9689,12 @@
       </c>
       <c r="K165" s="5"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C166">
         <v>163</v>
@@ -8538,12 +9720,12 @@
       </c>
       <c r="K166" s="5"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C167">
         <v>145</v>
@@ -8569,12 +9751,12 @@
       </c>
       <c r="K167" s="5"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C168">
         <v>153</v>
@@ -8600,12 +9782,12 @@
       </c>
       <c r="K168" s="5"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C169">
         <v>151</v>
@@ -8631,12 +9813,12 @@
       </c>
       <c r="K169" s="5"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C170">
         <v>163</v>
@@ -8662,12 +9844,12 @@
       </c>
       <c r="K170" s="5"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C171">
         <v>168</v>
@@ -8693,12 +9875,12 @@
       </c>
       <c r="K171" s="5"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C172">
         <v>158</v>
@@ -8724,12 +9906,12 @@
       </c>
       <c r="K172" s="5"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C173">
         <v>160</v>
@@ -8755,12 +9937,12 @@
       </c>
       <c r="K173" s="5"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C174">
         <v>159</v>
@@ -8786,12 +9968,12 @@
       </c>
       <c r="K174" s="5"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C175">
         <v>153</v>
@@ -8817,12 +9999,12 @@
       </c>
       <c r="K175" s="5"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C176">
         <v>152</v>
@@ -8848,12 +10030,12 @@
       </c>
       <c r="K176" s="5"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C177">
         <v>167</v>
@@ -8879,12 +10061,12 @@
       </c>
       <c r="K177" s="5"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C178">
         <v>162</v>
@@ -8910,12 +10092,12 @@
       </c>
       <c r="K178" s="5"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C179">
         <v>159</v>
@@ -8941,12 +10123,12 @@
       </c>
       <c r="K179" s="5"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C180">
         <v>158</v>
@@ -8972,12 +10154,12 @@
       </c>
       <c r="K180" s="5"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C181">
         <v>164</v>
@@ -9003,12 +10185,12 @@
       </c>
       <c r="K181" s="5"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C182">
         <v>154</v>
@@ -9034,12 +10216,12 @@
       </c>
       <c r="K182" s="5"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C183">
         <v>155</v>
@@ -9065,12 +10247,12 @@
       </c>
       <c r="K183" s="5"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C184">
         <v>150</v>
@@ -9096,12 +10278,12 @@
       </c>
       <c r="K184" s="5"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C185">
         <v>163</v>
@@ -9127,12 +10309,12 @@
       </c>
       <c r="K185" s="5"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C186">
         <v>165</v>
@@ -9158,12 +10340,12 @@
       </c>
       <c r="K186" s="5"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C187">
         <v>161</v>
@@ -9189,12 +10371,12 @@
       </c>
       <c r="K187" s="5"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C188">
         <v>148</v>
@@ -9220,12 +10402,12 @@
       </c>
       <c r="K188" s="5"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C189">
         <v>156</v>
@@ -9251,12 +10433,12 @@
       </c>
       <c r="K189" s="5"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C190">
         <v>167</v>
@@ -9282,12 +10464,12 @@
       </c>
       <c r="K190" s="5"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C191">
         <v>153</v>
@@ -9313,12 +10495,12 @@
       </c>
       <c r="K191" s="5"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C192">
         <v>144</v>
@@ -9344,12 +10526,12 @@
       </c>
       <c r="K192" s="5"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C193">
         <v>140</v>
@@ -9375,12 +10557,12 @@
       </c>
       <c r="K193" s="5"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C194">
         <v>153</v>
@@ -9406,12 +10588,12 @@
       </c>
       <c r="K194" s="5"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C195">
         <v>169</v>
@@ -9437,12 +10619,12 @@
       </c>
       <c r="K195" s="5"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C196">
         <v>163</v>
@@ -9468,12 +10650,12 @@
       </c>
       <c r="K196" s="5"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C197">
         <v>155</v>
@@ -9499,12 +10681,12 @@
       </c>
       <c r="K197" s="5"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C198">
         <v>169</v>
@@ -9530,12 +10712,12 @@
       </c>
       <c r="K198" s="5"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C199">
         <v>154</v>
@@ -9561,12 +10743,12 @@
       </c>
       <c r="K199" s="5"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C200">
         <v>153</v>
@@ -9592,12 +10774,12 @@
       </c>
       <c r="K200" s="5"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C201">
         <v>151</v>
@@ -9623,12 +10805,12 @@
       </c>
       <c r="K201" s="5"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C202">
         <v>154</v>
@@ -9654,12 +10836,12 @@
       </c>
       <c r="K202" s="5"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C203">
         <v>163</v>
@@ -9685,12 +10867,12 @@
       </c>
       <c r="K203" s="5"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C204">
         <v>156</v>
@@ -9716,12 +10898,12 @@
       </c>
       <c r="K204" s="5"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C205">
         <v>168</v>
@@ -9747,12 +10929,12 @@
       </c>
       <c r="K205" s="5"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C206">
         <v>156</v>
@@ -9778,12 +10960,12 @@
       </c>
       <c r="K206" s="5"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C207">
         <v>168</v>
@@ -9809,12 +10991,12 @@
       </c>
       <c r="K207" s="5"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C208">
         <v>151</v>
@@ -9840,12 +11022,12 @@
       </c>
       <c r="K208" s="5"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C209">
         <v>164</v>
@@ -9871,12 +11053,12 @@
       </c>
       <c r="K209" s="5"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C210">
         <v>159</v>
@@ -9902,12 +11084,12 @@
       </c>
       <c r="K210" s="5"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C211">
         <v>149</v>
@@ -9933,12 +11115,12 @@
       </c>
       <c r="K211" s="5"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C212">
         <v>156</v>
@@ -9964,12 +11146,12 @@
       </c>
       <c r="K212" s="5"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C213">
         <v>148</v>
@@ -9995,12 +11177,12 @@
       </c>
       <c r="K213" s="5"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C214">
         <v>144</v>
@@ -10026,12 +11208,12 @@
       </c>
       <c r="K214" s="5"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C215">
         <v>155</v>

--- a/code/数据库设计/详细数据.xlsx
+++ b/code/数据库设计/详细数据.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F14A3F4-A65A-4474-A82A-5580499F4D86}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="city" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">city!$A$1:$J$55</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1206,7 +1207,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -1317,7 +1318,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="输出" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1595,28 +1596,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>312</v>
       </c>
@@ -1648,7 +1649,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1677,7 +1678,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1706,7 +1707,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1735,7 +1736,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1764,7 +1765,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1793,7 +1794,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1822,7 +1823,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1851,7 +1852,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1880,7 +1881,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1909,7 +1910,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1938,7 +1939,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1967,7 +1968,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1996,7 +1997,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2025,7 +2026,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2054,7 +2055,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2083,7 +2084,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2112,7 +2113,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2141,7 +2142,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2170,7 +2171,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2199,7 +2200,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2228,7 +2229,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2257,7 +2258,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2286,7 +2287,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2315,7 +2316,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2344,7 +2345,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2373,7 +2374,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2402,7 +2403,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2431,7 +2432,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2460,7 +2461,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2489,7 +2490,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2518,7 +2519,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2547,7 +2548,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2605,7 +2606,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2634,7 +2635,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2692,7 +2693,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2721,7 +2722,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2750,7 +2751,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2779,7 +2780,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2808,7 +2809,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2837,7 +2838,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2866,7 +2867,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2895,7 +2896,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2924,7 +2925,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2953,7 +2954,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2982,7 +2983,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3011,7 +3012,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3040,7 +3041,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3069,7 +3070,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3098,7 +3099,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3128,7 +3129,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J55">
+  <autoFilter ref="A1:J55" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A2:J55">
       <sortCondition ref="B1:B55"/>
     </sortState>
@@ -3140,25 +3141,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>312</v>
       </c>
@@ -3190,7 +3191,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3219,7 +3220,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3248,7 +3249,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3277,7 +3278,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3306,7 +3307,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3335,7 +3336,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3364,7 +3365,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3393,7 +3394,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3422,7 +3423,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3451,7 +3452,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3480,7 +3481,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3509,7 +3510,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3538,7 +3539,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3567,7 +3568,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3596,7 +3597,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3625,7 +3626,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3654,7 +3655,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3683,7 +3684,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3712,7 +3713,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3741,7 +3742,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3770,7 +3771,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3799,7 +3800,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3828,7 +3829,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3857,7 +3858,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3886,7 +3887,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3915,7 +3916,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3944,7 +3945,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3973,7 +3974,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4002,7 +4003,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4031,7 +4032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4060,7 +4061,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4088,8 +4089,11 @@
       <c r="I32">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4117,8 +4121,11 @@
       <c r="I33">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4147,7 +4154,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4175,8 +4182,11 @@
       <c r="I35">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4203,6 +4213,9 @@
       </c>
       <c r="I36">
         <v>60</v>
+      </c>
+      <c r="J36">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -4213,24 +4226,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
@@ -4257,25 +4270,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -4307,23 +4320,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>71</v>
       </c>
@@ -4341,22 +4354,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
@@ -4370,7 +4383,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4384,7 +4397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4398,7 +4411,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4412,7 +4425,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4426,7 +4439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4440,7 +4453,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4454,7 +4467,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4468,7 +4481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4482,7 +4495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4496,7 +4509,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4518,22 +4531,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
@@ -4551,29 +4564,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="4"/>
+    <col min="6" max="6" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>311</v>
       </c>
@@ -4605,7 +4618,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4636,7 +4649,7 @@
       </c>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4667,7 +4680,7 @@
       </c>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4698,7 +4711,7 @@
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4729,7 +4742,7 @@
       </c>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4760,7 +4773,7 @@
       </c>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4791,7 +4804,7 @@
       </c>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4822,7 +4835,7 @@
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4853,7 +4866,7 @@
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4884,7 +4897,7 @@
       </c>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4915,7 +4928,7 @@
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4946,7 +4959,7 @@
       </c>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4977,7 +4990,7 @@
       </c>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5008,7 +5021,7 @@
       </c>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5039,7 +5052,7 @@
       </c>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5070,7 +5083,7 @@
       </c>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5101,7 +5114,7 @@
       </c>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5132,7 +5145,7 @@
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5163,7 +5176,7 @@
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5194,7 +5207,7 @@
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5225,7 +5238,7 @@
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5256,7 +5269,7 @@
       </c>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5287,7 +5300,7 @@
       </c>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5318,7 +5331,7 @@
       </c>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5349,7 +5362,7 @@
       </c>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5380,7 +5393,7 @@
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5411,7 +5424,7 @@
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5442,7 +5455,7 @@
       </c>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5473,7 +5486,7 @@
       </c>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5504,7 +5517,7 @@
       </c>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5535,7 +5548,7 @@
       </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5566,7 +5579,7 @@
       </c>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5597,7 +5610,7 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5628,7 +5641,7 @@
       </c>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5659,7 +5672,7 @@
       </c>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5690,7 +5703,7 @@
       </c>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5721,7 +5734,7 @@
       </c>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5752,7 +5765,7 @@
       </c>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5783,7 +5796,7 @@
       </c>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5814,7 +5827,7 @@
       </c>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5845,7 +5858,7 @@
       </c>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5876,7 +5889,7 @@
       </c>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5907,7 +5920,7 @@
       </c>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5938,7 +5951,7 @@
       </c>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5969,7 +5982,7 @@
       </c>
       <c r="K45" s="5"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6000,7 +6013,7 @@
       </c>
       <c r="K46" s="5"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6031,7 +6044,7 @@
       </c>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6062,7 +6075,7 @@
       </c>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6093,7 +6106,7 @@
       </c>
       <c r="K49" s="5"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6124,7 +6137,7 @@
       </c>
       <c r="K50" s="5"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6155,7 +6168,7 @@
       </c>
       <c r="K51" s="5"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6186,7 +6199,7 @@
       </c>
       <c r="K52" s="5"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6217,7 +6230,7 @@
       </c>
       <c r="K53" s="5"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6248,7 +6261,7 @@
       </c>
       <c r="K54" s="5"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6279,7 +6292,7 @@
       </c>
       <c r="K55" s="5"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6310,7 +6323,7 @@
       </c>
       <c r="K56" s="5"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6341,7 +6354,7 @@
       </c>
       <c r="K57" s="5"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6372,7 +6385,7 @@
       </c>
       <c r="K58" s="5"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6403,7 +6416,7 @@
       </c>
       <c r="K59" s="5"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6434,7 +6447,7 @@
       </c>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6465,7 +6478,7 @@
       </c>
       <c r="K61" s="5"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6496,7 +6509,7 @@
       </c>
       <c r="K62" s="5"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6527,7 +6540,7 @@
       </c>
       <c r="K63" s="5"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6558,7 +6571,7 @@
       </c>
       <c r="K64" s="5"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6589,7 +6602,7 @@
       </c>
       <c r="K65" s="5"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6620,7 +6633,7 @@
       </c>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6651,7 +6664,7 @@
       </c>
       <c r="K67" s="5"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6682,7 +6695,7 @@
       </c>
       <c r="K68" s="5"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6713,7 +6726,7 @@
       </c>
       <c r="K69" s="5"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6744,7 +6757,7 @@
       </c>
       <c r="K70" s="5"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6775,7 +6788,7 @@
       </c>
       <c r="K71" s="5"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6806,7 +6819,7 @@
       </c>
       <c r="K72" s="5"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6837,7 +6850,7 @@
       </c>
       <c r="K73" s="5"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6868,7 +6881,7 @@
       </c>
       <c r="K74" s="5"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6899,7 +6912,7 @@
       </c>
       <c r="K75" s="5"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6930,7 +6943,7 @@
       </c>
       <c r="K76" s="5"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6961,7 +6974,7 @@
       </c>
       <c r="K77" s="5"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6992,7 +7005,7 @@
       </c>
       <c r="K78" s="5"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7023,7 +7036,7 @@
       </c>
       <c r="K79" s="5"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7054,7 +7067,7 @@
       </c>
       <c r="K80" s="5"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7085,7 +7098,7 @@
       </c>
       <c r="K81" s="5"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7116,7 +7129,7 @@
       </c>
       <c r="K82" s="5"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7147,7 +7160,7 @@
       </c>
       <c r="K83" s="5"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7178,7 +7191,7 @@
       </c>
       <c r="K84" s="5"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7209,7 +7222,7 @@
       </c>
       <c r="K85" s="5"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7240,7 +7253,7 @@
       </c>
       <c r="K86" s="5"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7271,7 +7284,7 @@
       </c>
       <c r="K87" s="5"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7302,7 +7315,7 @@
       </c>
       <c r="K88" s="5"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7333,7 +7346,7 @@
       </c>
       <c r="K89" s="5"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7364,7 +7377,7 @@
       </c>
       <c r="K90" s="5"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7395,7 +7408,7 @@
       </c>
       <c r="K91" s="5"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7426,7 +7439,7 @@
       </c>
       <c r="K92" s="5"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7457,7 +7470,7 @@
       </c>
       <c r="K93" s="5"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7488,7 +7501,7 @@
       </c>
       <c r="K94" s="5"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7519,7 +7532,7 @@
       </c>
       <c r="K95" s="5"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7550,7 +7563,7 @@
       </c>
       <c r="K96" s="5"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7581,7 +7594,7 @@
       </c>
       <c r="K97" s="5"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7612,7 +7625,7 @@
       </c>
       <c r="K98" s="5"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7643,7 +7656,7 @@
       </c>
       <c r="K99" s="5"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7674,7 +7687,7 @@
       </c>
       <c r="K100" s="5"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7705,7 +7718,7 @@
       </c>
       <c r="K101" s="5"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7736,7 +7749,7 @@
       </c>
       <c r="K102" s="5"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7767,7 +7780,7 @@
       </c>
       <c r="K103" s="5"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7798,7 +7811,7 @@
       </c>
       <c r="K104" s="5"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7829,7 +7842,7 @@
       </c>
       <c r="K105" s="5"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7860,7 +7873,7 @@
       </c>
       <c r="K106" s="5"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7891,7 +7904,7 @@
       </c>
       <c r="K107" s="5"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7922,7 +7935,7 @@
       </c>
       <c r="K108" s="5"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7953,7 +7966,7 @@
       </c>
       <c r="K109" s="5"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7984,7 +7997,7 @@
       </c>
       <c r="K110" s="5"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -8015,7 +8028,7 @@
       </c>
       <c r="K111" s="5"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -8046,7 +8059,7 @@
       </c>
       <c r="K112" s="5"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -8077,7 +8090,7 @@
       </c>
       <c r="K113" s="5"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -8108,7 +8121,7 @@
       </c>
       <c r="K114" s="5"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -8139,7 +8152,7 @@
       </c>
       <c r="K115" s="5"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -8170,7 +8183,7 @@
       </c>
       <c r="K116" s="5"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -8201,7 +8214,7 @@
       </c>
       <c r="K117" s="5"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -8232,7 +8245,7 @@
       </c>
       <c r="K118" s="5"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -8263,7 +8276,7 @@
       </c>
       <c r="K119" s="5"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -8294,7 +8307,7 @@
       </c>
       <c r="K120" s="5"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -8325,7 +8338,7 @@
       </c>
       <c r="K121" s="5"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -8356,7 +8369,7 @@
       </c>
       <c r="K122" s="5"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -8387,7 +8400,7 @@
       </c>
       <c r="K123" s="5"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -8418,7 +8431,7 @@
       </c>
       <c r="K124" s="5"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -8449,7 +8462,7 @@
       </c>
       <c r="K125" s="5"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -8480,7 +8493,7 @@
       </c>
       <c r="K126" s="5"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -8511,7 +8524,7 @@
       </c>
       <c r="K127" s="5"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -8542,7 +8555,7 @@
       </c>
       <c r="K128" s="5"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -8573,7 +8586,7 @@
       </c>
       <c r="K129" s="5"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -8604,7 +8617,7 @@
       </c>
       <c r="K130" s="5"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -8635,7 +8648,7 @@
       </c>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -8666,7 +8679,7 @@
       </c>
       <c r="K132" s="5"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -8697,7 +8710,7 @@
       </c>
       <c r="K133" s="5"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -8728,7 +8741,7 @@
       </c>
       <c r="K134" s="5"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -8759,7 +8772,7 @@
       </c>
       <c r="K135" s="5"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -8790,7 +8803,7 @@
       </c>
       <c r="K136" s="5"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -8821,7 +8834,7 @@
       </c>
       <c r="K137" s="5"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -8852,7 +8865,7 @@
       </c>
       <c r="K138" s="5"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -8883,7 +8896,7 @@
       </c>
       <c r="K139" s="5"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -8914,7 +8927,7 @@
       </c>
       <c r="K140" s="5"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -8945,7 +8958,7 @@
       </c>
       <c r="K141" s="5"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -8976,7 +8989,7 @@
       </c>
       <c r="K142" s="5"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -9007,7 +9020,7 @@
       </c>
       <c r="K143" s="5"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -9038,7 +9051,7 @@
       </c>
       <c r="K144" s="5"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -9069,7 +9082,7 @@
       </c>
       <c r="K145" s="5"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -9100,7 +9113,7 @@
       </c>
       <c r="K146" s="5"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -9131,7 +9144,7 @@
       </c>
       <c r="K147" s="5"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -9162,7 +9175,7 @@
       </c>
       <c r="K148" s="5"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -9193,7 +9206,7 @@
       </c>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -9224,7 +9237,7 @@
       </c>
       <c r="K150" s="5"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -9255,7 +9268,7 @@
       </c>
       <c r="K151" s="5"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -9286,7 +9299,7 @@
       </c>
       <c r="K152" s="5"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -9317,7 +9330,7 @@
       </c>
       <c r="K153" s="5"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -9348,7 +9361,7 @@
       </c>
       <c r="K154" s="5"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -9379,7 +9392,7 @@
       </c>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -9410,7 +9423,7 @@
       </c>
       <c r="K156" s="5"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -9441,7 +9454,7 @@
       </c>
       <c r="K157" s="5"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -9472,7 +9485,7 @@
       </c>
       <c r="K158" s="5"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -9503,7 +9516,7 @@
       </c>
       <c r="K159" s="5"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -9534,7 +9547,7 @@
       </c>
       <c r="K160" s="5"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -9565,7 +9578,7 @@
       </c>
       <c r="K161" s="5"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -9596,7 +9609,7 @@
       </c>
       <c r="K162" s="5"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -9627,7 +9640,7 @@
       </c>
       <c r="K163" s="5"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -9658,7 +9671,7 @@
       </c>
       <c r="K164" s="5"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -9689,7 +9702,7 @@
       </c>
       <c r="K165" s="5"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -9720,7 +9733,7 @@
       </c>
       <c r="K166" s="5"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -9751,7 +9764,7 @@
       </c>
       <c r="K167" s="5"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -9782,7 +9795,7 @@
       </c>
       <c r="K168" s="5"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -9813,7 +9826,7 @@
       </c>
       <c r="K169" s="5"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -9844,7 +9857,7 @@
       </c>
       <c r="K170" s="5"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -9875,7 +9888,7 @@
       </c>
       <c r="K171" s="5"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -9906,7 +9919,7 @@
       </c>
       <c r="K172" s="5"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -9937,7 +9950,7 @@
       </c>
       <c r="K173" s="5"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -9968,7 +9981,7 @@
       </c>
       <c r="K174" s="5"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -9999,7 +10012,7 @@
       </c>
       <c r="K175" s="5"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -10030,7 +10043,7 @@
       </c>
       <c r="K176" s="5"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -10061,7 +10074,7 @@
       </c>
       <c r="K177" s="5"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -10092,7 +10105,7 @@
       </c>
       <c r="K178" s="5"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -10123,7 +10136,7 @@
       </c>
       <c r="K179" s="5"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -10154,7 +10167,7 @@
       </c>
       <c r="K180" s="5"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -10185,7 +10198,7 @@
       </c>
       <c r="K181" s="5"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -10216,7 +10229,7 @@
       </c>
       <c r="K182" s="5"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -10247,7 +10260,7 @@
       </c>
       <c r="K183" s="5"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -10278,7 +10291,7 @@
       </c>
       <c r="K184" s="5"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -10309,7 +10322,7 @@
       </c>
       <c r="K185" s="5"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -10340,7 +10353,7 @@
       </c>
       <c r="K186" s="5"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -10371,7 +10384,7 @@
       </c>
       <c r="K187" s="5"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -10402,7 +10415,7 @@
       </c>
       <c r="K188" s="5"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -10433,7 +10446,7 @@
       </c>
       <c r="K189" s="5"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -10464,7 +10477,7 @@
       </c>
       <c r="K190" s="5"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -10495,7 +10508,7 @@
       </c>
       <c r="K191" s="5"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -10526,7 +10539,7 @@
       </c>
       <c r="K192" s="5"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -10557,7 +10570,7 @@
       </c>
       <c r="K193" s="5"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -10588,7 +10601,7 @@
       </c>
       <c r="K194" s="5"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -10619,7 +10632,7 @@
       </c>
       <c r="K195" s="5"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -10650,7 +10663,7 @@
       </c>
       <c r="K196" s="5"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -10681,7 +10694,7 @@
       </c>
       <c r="K197" s="5"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -10712,7 +10725,7 @@
       </c>
       <c r="K198" s="5"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -10743,7 +10756,7 @@
       </c>
       <c r="K199" s="5"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -10774,7 +10787,7 @@
       </c>
       <c r="K200" s="5"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -10805,7 +10818,7 @@
       </c>
       <c r="K201" s="5"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -10836,7 +10849,7 @@
       </c>
       <c r="K202" s="5"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -10867,7 +10880,7 @@
       </c>
       <c r="K203" s="5"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -10898,7 +10911,7 @@
       </c>
       <c r="K204" s="5"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -10929,7 +10942,7 @@
       </c>
       <c r="K205" s="5"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -10960,7 +10973,7 @@
       </c>
       <c r="K206" s="5"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -10991,7 +11004,7 @@
       </c>
       <c r="K207" s="5"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -11022,7 +11035,7 @@
       </c>
       <c r="K208" s="5"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -11053,7 +11066,7 @@
       </c>
       <c r="K209" s="5"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -11084,7 +11097,7 @@
       </c>
       <c r="K210" s="5"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -11115,7 +11128,7 @@
       </c>
       <c r="K211" s="5"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -11146,7 +11159,7 @@
       </c>
       <c r="K212" s="5"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -11177,7 +11190,7 @@
       </c>
       <c r="K213" s="5"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -11208,7 +11221,7 @@
       </c>
       <c r="K214" s="5"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>

--- a/code/数据库设计/详细数据.xlsx
+++ b/code/数据库设计/详细数据.xlsx
@@ -3,19 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F14A3F4-A65A-4474-A82A-5580499F4D86}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FFBD0D-61E2-4C94-96B8-561C755137FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="city" sheetId="1" r:id="rId1"/>
-    <sheet name="中原城池" sheetId="8" r:id="rId2"/>
-    <sheet name="battle" sheetId="2" r:id="rId3"/>
-    <sheet name="army" sheetId="3" r:id="rId4"/>
-    <sheet name="time" sheetId="4" r:id="rId5"/>
-    <sheet name="faction" sheetId="5" r:id="rId6"/>
-    <sheet name="player" sheetId="6" r:id="rId7"/>
-    <sheet name="person" sheetId="7" r:id="rId8"/>
+    <sheet name="battle" sheetId="2" r:id="rId2"/>
+    <sheet name="army" sheetId="3" r:id="rId3"/>
+    <sheet name="time" sheetId="4" r:id="rId4"/>
+    <sheet name="faction" sheetId="5" r:id="rId5"/>
+    <sheet name="player" sheetId="6" r:id="rId6"/>
+    <sheet name="person" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">city!$A$1:$J$55</definedName>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
   <si>
     <t>武威</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -325,46 +324,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>黄巾军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘虞军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陶谦军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公孙瓒军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>马腾军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>董卓军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉王朝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙坚军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘备军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹操军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FactionCapitalID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1083,124 +1042,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>琅琊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄陵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>会稽</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>南皮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平原</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>济北</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下邳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘陵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>寿春</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>庐江</t>
-  </si>
-  <si>
     <t>庐江</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>钜鹿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>濮阳</t>
-  </si>
-  <si>
-    <t>焦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈留</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>晋阳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上棠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>许昌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汝南</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>江夏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛阳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新野</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弘农</t>
-  </si>
-  <si>
     <t>弘农</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>江陵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>长安</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上庸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>永安</t>
+    <t>cityConnCityID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1597,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1617,9 +1471,9 @@
     <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>48</v>
@@ -1648,8 +1502,11 @@
       <c r="J1" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1678,7 +1535,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1707,7 +1564,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1736,7 +1593,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1765,7 +1622,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1794,7 +1651,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1823,7 +1680,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1852,7 +1709,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1881,12 +1738,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -1910,12 +1767,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -1939,7 +1796,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1968,7 +1825,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1997,7 +1854,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2026,7 +1883,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2055,7 +1912,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2263,7 +2120,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C23">
         <v>100</v>
@@ -3141,1091 +2998,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>1000</v>
-      </c>
-      <c r="I2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>1000</v>
-      </c>
-      <c r="I3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4">
-        <v>1000</v>
-      </c>
-      <c r="I4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>1000</v>
-      </c>
-      <c r="I5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>316</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>100</v>
-      </c>
-      <c r="H6">
-        <v>1000</v>
-      </c>
-      <c r="I6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>317</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
-      <c r="H7">
-        <v>1000</v>
-      </c>
-      <c r="I7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>100</v>
-      </c>
-      <c r="H8">
-        <v>1000</v>
-      </c>
-      <c r="I8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>319</v>
-      </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-      <c r="H9">
-        <v>1000</v>
-      </c>
-      <c r="I9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>100</v>
-      </c>
-      <c r="H10">
-        <v>1000</v>
-      </c>
-      <c r="I10">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>320</v>
-      </c>
-      <c r="C11">
-        <v>100</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>100</v>
-      </c>
-      <c r="H11">
-        <v>1000</v>
-      </c>
-      <c r="I11">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>100</v>
-      </c>
-      <c r="H12">
-        <v>1000</v>
-      </c>
-      <c r="I12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13">
-        <v>100</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>100</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <v>100</v>
-      </c>
-      <c r="H13">
-        <v>1000</v>
-      </c>
-      <c r="I13">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>321</v>
-      </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-      <c r="G14">
-        <v>100</v>
-      </c>
-      <c r="H14">
-        <v>1000</v>
-      </c>
-      <c r="I14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>322</v>
-      </c>
-      <c r="C15">
-        <v>100</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="G15">
-        <v>100</v>
-      </c>
-      <c r="H15">
-        <v>1000</v>
-      </c>
-      <c r="I15">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>323</v>
-      </c>
-      <c r="C16">
-        <v>100</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>100</v>
-      </c>
-      <c r="F16">
-        <v>10</v>
-      </c>
-      <c r="G16">
-        <v>100</v>
-      </c>
-      <c r="H16">
-        <v>1000</v>
-      </c>
-      <c r="I16">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>325</v>
-      </c>
-      <c r="C17">
-        <v>100</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>100</v>
-      </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-      <c r="G17">
-        <v>100</v>
-      </c>
-      <c r="H17">
-        <v>1000</v>
-      </c>
-      <c r="I17">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>326</v>
-      </c>
-      <c r="C18">
-        <v>100</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>100</v>
-      </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <v>100</v>
-      </c>
-      <c r="H18">
-        <v>1000</v>
-      </c>
-      <c r="I18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>327</v>
-      </c>
-      <c r="C19">
-        <v>100</v>
-      </c>
-      <c r="D19">
-        <v>10</v>
-      </c>
-      <c r="E19">
-        <v>100</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19">
-        <v>100</v>
-      </c>
-      <c r="H19">
-        <v>1000</v>
-      </c>
-      <c r="I19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>328</v>
-      </c>
-      <c r="C20">
-        <v>100</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>100</v>
-      </c>
-      <c r="F20">
-        <v>10</v>
-      </c>
-      <c r="G20">
-        <v>100</v>
-      </c>
-      <c r="H20">
-        <v>1000</v>
-      </c>
-      <c r="I20">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>329</v>
-      </c>
-      <c r="C21">
-        <v>100</v>
-      </c>
-      <c r="D21">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <v>100</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="G21">
-        <v>100</v>
-      </c>
-      <c r="H21">
-        <v>1000</v>
-      </c>
-      <c r="I21">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>330</v>
-      </c>
-      <c r="C22">
-        <v>100</v>
-      </c>
-      <c r="D22">
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <v>100</v>
-      </c>
-      <c r="F22">
-        <v>10</v>
-      </c>
-      <c r="G22">
-        <v>100</v>
-      </c>
-      <c r="H22">
-        <v>1000</v>
-      </c>
-      <c r="I22">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>331</v>
-      </c>
-      <c r="C23">
-        <v>100</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-      <c r="E23">
-        <v>100</v>
-      </c>
-      <c r="F23">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>100</v>
-      </c>
-      <c r="H23">
-        <v>1000</v>
-      </c>
-      <c r="I23">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <v>100</v>
-      </c>
-      <c r="D24">
-        <v>10</v>
-      </c>
-      <c r="E24">
-        <v>100</v>
-      </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>100</v>
-      </c>
-      <c r="H24">
-        <v>1000</v>
-      </c>
-      <c r="I24">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>332</v>
-      </c>
-      <c r="C25">
-        <v>100</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>100</v>
-      </c>
-      <c r="F25">
-        <v>10</v>
-      </c>
-      <c r="G25">
-        <v>100</v>
-      </c>
-      <c r="H25">
-        <v>1000</v>
-      </c>
-      <c r="I25">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>333</v>
-      </c>
-      <c r="C26">
-        <v>100</v>
-      </c>
-      <c r="D26">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>100</v>
-      </c>
-      <c r="F26">
-        <v>10</v>
-      </c>
-      <c r="G26">
-        <v>100</v>
-      </c>
-      <c r="H26">
-        <v>1000</v>
-      </c>
-      <c r="I26">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>334</v>
-      </c>
-      <c r="C27">
-        <v>100</v>
-      </c>
-      <c r="D27">
-        <v>10</v>
-      </c>
-      <c r="E27">
-        <v>100</v>
-      </c>
-      <c r="F27">
-        <v>10</v>
-      </c>
-      <c r="G27">
-        <v>100</v>
-      </c>
-      <c r="H27">
-        <v>1000</v>
-      </c>
-      <c r="I27">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>335</v>
-      </c>
-      <c r="C28">
-        <v>100</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-      <c r="E28">
-        <v>100</v>
-      </c>
-      <c r="F28">
-        <v>10</v>
-      </c>
-      <c r="G28">
-        <v>100</v>
-      </c>
-      <c r="H28">
-        <v>1000</v>
-      </c>
-      <c r="I28">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>336</v>
-      </c>
-      <c r="C29">
-        <v>100</v>
-      </c>
-      <c r="D29">
-        <v>10</v>
-      </c>
-      <c r="E29">
-        <v>100</v>
-      </c>
-      <c r="F29">
-        <v>10</v>
-      </c>
-      <c r="G29">
-        <v>100</v>
-      </c>
-      <c r="H29">
-        <v>1000</v>
-      </c>
-      <c r="I29">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>337</v>
-      </c>
-      <c r="C30">
-        <v>100</v>
-      </c>
-      <c r="D30">
-        <v>10</v>
-      </c>
-      <c r="E30">
-        <v>100</v>
-      </c>
-      <c r="F30">
-        <v>10</v>
-      </c>
-      <c r="G30">
-        <v>100</v>
-      </c>
-      <c r="H30">
-        <v>1000</v>
-      </c>
-      <c r="I30">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>338</v>
-      </c>
-      <c r="C31">
-        <v>100</v>
-      </c>
-      <c r="D31">
-        <v>10</v>
-      </c>
-      <c r="E31">
-        <v>100</v>
-      </c>
-      <c r="F31">
-        <v>10</v>
-      </c>
-      <c r="G31">
-        <v>100</v>
-      </c>
-      <c r="H31">
-        <v>1000</v>
-      </c>
-      <c r="I31">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>100</v>
-      </c>
-      <c r="D32">
-        <v>10</v>
-      </c>
-      <c r="E32">
-        <v>100</v>
-      </c>
-      <c r="F32">
-        <v>10</v>
-      </c>
-      <c r="G32">
-        <v>100</v>
-      </c>
-      <c r="H32">
-        <v>1000</v>
-      </c>
-      <c r="I32">
-        <v>60</v>
-      </c>
-      <c r="J32">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>340</v>
-      </c>
-      <c r="C33">
-        <v>100</v>
-      </c>
-      <c r="D33">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <v>100</v>
-      </c>
-      <c r="F33">
-        <v>10</v>
-      </c>
-      <c r="G33">
-        <v>100</v>
-      </c>
-      <c r="H33">
-        <v>1000</v>
-      </c>
-      <c r="I33">
-        <v>60</v>
-      </c>
-      <c r="J33">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>341</v>
-      </c>
-      <c r="C34">
-        <v>100</v>
-      </c>
-      <c r="D34">
-        <v>10</v>
-      </c>
-      <c r="E34">
-        <v>100</v>
-      </c>
-      <c r="F34">
-        <v>10</v>
-      </c>
-      <c r="G34">
-        <v>100</v>
-      </c>
-      <c r="H34">
-        <v>1000</v>
-      </c>
-      <c r="I34">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>342</v>
-      </c>
-      <c r="C35">
-        <v>100</v>
-      </c>
-      <c r="D35">
-        <v>10</v>
-      </c>
-      <c r="E35">
-        <v>100</v>
-      </c>
-      <c r="F35">
-        <v>10</v>
-      </c>
-      <c r="G35">
-        <v>100</v>
-      </c>
-      <c r="H35">
-        <v>1000</v>
-      </c>
-      <c r="I35">
-        <v>60</v>
-      </c>
-      <c r="J35">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>343</v>
-      </c>
-      <c r="C36">
-        <v>100</v>
-      </c>
-      <c r="D36">
-        <v>10</v>
-      </c>
-      <c r="E36">
-        <v>100</v>
-      </c>
-      <c r="F36">
-        <v>10</v>
-      </c>
-      <c r="G36">
-        <v>100</v>
-      </c>
-      <c r="H36">
-        <v>1000</v>
-      </c>
-      <c r="I36">
-        <v>60</v>
-      </c>
-      <c r="J36">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -4269,7 +3041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -4319,7 +3091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -4353,12 +3125,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4371,156 +3143,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10">
-        <v>108</v>
-      </c>
-      <c r="D10">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
         <v>72</v>
-      </c>
-      <c r="C11">
-        <v>192</v>
-      </c>
-      <c r="D11">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4530,7 +3162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -4548,10 +3180,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -4563,7 +3195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K215"/>
   <sheetViews>
@@ -4588,34 +3220,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="E1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="F1" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="G1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="H1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="I1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="J1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4623,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C2">
         <v>155</v>
@@ -4654,7 +3286,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C3">
         <v>161</v>
@@ -4685,7 +3317,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C4">
         <v>155</v>
@@ -4716,7 +3348,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C5">
         <v>135</v>
@@ -4747,7 +3379,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C6">
         <v>139</v>
@@ -4778,7 +3410,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C7">
         <v>156</v>
@@ -4809,7 +3441,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C8">
         <v>153</v>
@@ -4840,7 +3472,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C9">
         <v>132</v>
@@ -4871,7 +3503,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C10">
         <v>132</v>
@@ -4902,7 +3534,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C11">
         <v>152</v>
@@ -4933,7 +3565,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C12">
         <v>169</v>
@@ -4964,7 +3596,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C13">
         <v>166</v>
@@ -4995,7 +3627,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C14">
         <v>155</v>
@@ -5026,7 +3658,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C15">
         <v>168</v>
@@ -5057,7 +3689,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C16">
         <v>151</v>
@@ -5088,7 +3720,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C17">
         <v>169</v>
@@ -5119,7 +3751,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C18">
         <v>168</v>
@@ -5150,7 +3782,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C19">
         <v>163</v>
@@ -5181,7 +3813,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C20">
         <v>164</v>
@@ -5212,7 +3844,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C21">
         <v>169</v>
@@ -5243,7 +3875,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C22">
         <v>154</v>
@@ -5274,7 +3906,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C23">
         <v>132</v>
@@ -5305,7 +3937,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C24">
         <v>161</v>
@@ -5336,7 +3968,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C25">
         <v>165</v>
@@ -5367,7 +3999,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C26">
         <v>157</v>
@@ -5398,7 +4030,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C27">
         <v>160</v>
@@ -5429,7 +4061,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C28">
         <v>167</v>
@@ -5460,7 +4092,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C29">
         <v>168</v>
@@ -5491,7 +4123,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C30">
         <v>151</v>
@@ -5522,7 +4154,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C31">
         <v>169</v>
@@ -5553,7 +4185,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C32">
         <v>141</v>
@@ -5584,7 +4216,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C33">
         <v>145</v>
@@ -5615,7 +4247,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C34">
         <v>146</v>
@@ -5646,7 +4278,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C35">
         <v>163</v>
@@ -5677,7 +4309,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C36">
         <v>156</v>
@@ -5708,7 +4340,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C37">
         <v>147</v>
@@ -5739,7 +4371,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C38">
         <v>160</v>
@@ -5770,7 +4402,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C39">
         <v>137</v>
@@ -5801,7 +4433,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C40">
         <v>154</v>
@@ -5832,7 +4464,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C41">
         <v>168</v>
@@ -5863,7 +4495,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C42">
         <v>149</v>
@@ -5894,7 +4526,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C43">
         <v>169</v>
@@ -5925,7 +4557,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C44">
         <v>156</v>
@@ -5956,7 +4588,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C45">
         <v>153</v>
@@ -5987,7 +4619,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C46">
         <v>153</v>
@@ -6018,7 +4650,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C47">
         <v>153</v>
@@ -6049,7 +4681,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C48">
         <v>162</v>
@@ -6080,7 +4712,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C49">
         <v>163</v>
@@ -6111,7 +4743,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C50">
         <v>168</v>
@@ -6142,7 +4774,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C51">
         <v>159</v>
@@ -6173,7 +4805,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C52">
         <v>145</v>
@@ -6204,7 +4836,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C53">
         <v>158</v>
@@ -6235,7 +4867,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C54">
         <v>155</v>
@@ -6266,7 +4898,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C55">
         <v>158</v>
@@ -6297,7 +4929,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C56">
         <v>160</v>
@@ -6328,7 +4960,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C57">
         <v>164</v>
@@ -6359,7 +4991,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C58">
         <v>158</v>
@@ -6390,7 +5022,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C59">
         <v>162</v>
@@ -6421,7 +5053,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C60">
         <v>160</v>
@@ -6452,7 +5084,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C61">
         <v>146</v>
@@ -6483,7 +5115,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C62">
         <v>155</v>
@@ -6514,7 +5146,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C63">
         <v>156</v>
@@ -6545,7 +5177,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C64">
         <v>149</v>
@@ -6576,7 +5208,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C65">
         <v>164</v>
@@ -6607,7 +5239,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C66">
         <v>154</v>
@@ -6638,7 +5270,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C67">
         <v>163</v>
@@ -6669,7 +5301,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C68">
         <v>159</v>
@@ -6700,7 +5332,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C69">
         <v>163</v>
@@ -6731,7 +5363,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C70">
         <v>155</v>
@@ -6762,7 +5394,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C71">
         <v>156</v>
@@ -6793,7 +5425,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C72">
         <v>161</v>
@@ -6824,7 +5456,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C73">
         <v>158</v>
@@ -6855,7 +5487,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C74">
         <v>146</v>
@@ -6886,7 +5518,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C75">
         <v>157</v>
@@ -6917,7 +5549,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C76">
         <v>155</v>
@@ -6948,7 +5580,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C77">
         <v>132</v>
@@ -6979,7 +5611,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C78">
         <v>154</v>
@@ -7010,7 +5642,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C79">
         <v>167</v>
@@ -7041,7 +5673,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C80">
         <v>148</v>
@@ -7072,7 +5704,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C81">
         <v>148</v>
@@ -7103,7 +5735,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C82">
         <v>155</v>
@@ -7134,7 +5766,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C83">
         <v>147</v>
@@ -7165,7 +5797,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C84">
         <v>167</v>
@@ -7196,7 +5828,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C85">
         <v>168</v>
@@ -7227,7 +5859,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C86">
         <v>159</v>
@@ -7258,7 +5890,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C87">
         <v>155</v>
@@ -7289,7 +5921,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C88">
         <v>156</v>
@@ -7320,7 +5952,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C89">
         <v>153</v>
@@ -7351,7 +5983,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C90">
         <v>151</v>
@@ -7382,7 +6014,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C91">
         <v>155</v>
@@ -7413,7 +6045,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C92">
         <v>157</v>
@@ -7444,7 +6076,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C93">
         <v>159</v>
@@ -7475,7 +6107,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C94">
         <v>163</v>
@@ -7506,7 +6138,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C95">
         <v>160</v>
@@ -7537,7 +6169,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C96">
         <v>148</v>
@@ -7568,7 +6200,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C97">
         <v>150</v>
@@ -7599,7 +6231,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C98">
         <v>156</v>
@@ -7630,7 +6262,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C99">
         <v>168</v>
@@ -7661,7 +6293,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C100">
         <v>169</v>
@@ -7692,7 +6324,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C101">
         <v>165</v>
@@ -7723,7 +6355,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C102">
         <v>142</v>
@@ -7754,7 +6386,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C103">
         <v>147</v>
@@ -7785,7 +6417,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C104">
         <v>163</v>
@@ -7816,7 +6448,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C105">
         <v>168</v>
@@ -7847,7 +6479,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C106">
         <v>165</v>
@@ -7878,7 +6510,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C107">
         <v>169</v>
@@ -7909,7 +6541,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C108">
         <v>156</v>
@@ -7940,7 +6572,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C109">
         <v>145</v>
@@ -7971,7 +6603,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C110">
         <v>162</v>
@@ -8002,7 +6634,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C111">
         <v>139</v>
@@ -8033,7 +6665,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C112">
         <v>156</v>
@@ -8064,7 +6696,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C113">
         <v>161</v>
@@ -8095,7 +6727,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C114">
         <v>169</v>
@@ -8126,7 +6758,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C115">
         <v>162</v>
@@ -8157,7 +6789,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C116">
         <v>169</v>
@@ -8188,7 +6820,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C117">
         <v>164</v>
@@ -8219,7 +6851,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C118">
         <v>161</v>
@@ -8250,7 +6882,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C119">
         <v>169</v>
@@ -8281,7 +6913,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C120">
         <v>165</v>
@@ -8312,7 +6944,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C121">
         <v>162</v>
@@ -8343,7 +6975,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C122">
         <v>159</v>
@@ -8374,7 +7006,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C123">
         <v>163</v>
@@ -8405,7 +7037,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C124">
         <v>153</v>
@@ -8436,7 +7068,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C125">
         <v>169</v>
@@ -8467,7 +7099,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C126">
         <v>150</v>
@@ -8498,7 +7130,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C127">
         <v>146</v>
@@ -8529,7 +7161,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C128">
         <v>167</v>
@@ -8560,7 +7192,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C129">
         <v>156</v>
@@ -8591,7 +7223,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C130">
         <v>157</v>
@@ -8622,7 +7254,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C131">
         <v>164</v>
@@ -8653,7 +7285,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C132">
         <v>156</v>
@@ -8684,7 +7316,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C133">
         <v>165</v>
@@ -8715,7 +7347,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C134">
         <v>157</v>
@@ -8746,7 +7378,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C135">
         <v>166</v>
@@ -8777,7 +7409,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C136">
         <v>169</v>
@@ -8808,7 +7440,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C137">
         <v>162</v>
@@ -8839,7 +7471,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C138">
         <v>154</v>
@@ -8870,7 +7502,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C139">
         <v>150</v>
@@ -8901,7 +7533,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C140">
         <v>162</v>
@@ -8932,7 +7564,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C141">
         <v>162</v>
@@ -8963,7 +7595,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C142">
         <v>163</v>
@@ -8994,7 +7626,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C143">
         <v>168</v>
@@ -9025,7 +7657,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C144">
         <v>137</v>
@@ -9056,7 +7688,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C145">
         <v>152</v>
@@ -9087,7 +7719,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C146">
         <v>156</v>
@@ -9118,7 +7750,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C147">
         <v>151</v>
@@ -9149,7 +7781,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C148">
         <v>161</v>
@@ -9180,7 +7812,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C149">
         <v>151</v>
@@ -9211,7 +7843,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C150">
         <v>166</v>
@@ -9242,7 +7874,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C151">
         <v>163</v>
@@ -9273,7 +7905,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C152">
         <v>157</v>
@@ -9304,7 +7936,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C153">
         <v>157</v>
@@ -9335,7 +7967,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C154">
         <v>163</v>
@@ -9366,7 +7998,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C155">
         <v>167</v>
@@ -9397,7 +8029,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C156">
         <v>165</v>
@@ -9428,7 +8060,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C157">
         <v>151</v>
@@ -9459,7 +8091,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C158">
         <v>169</v>
@@ -9490,7 +8122,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C159">
         <v>147</v>
@@ -9521,7 +8153,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C160">
         <v>155</v>
@@ -9552,7 +8184,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C161">
         <v>152</v>
@@ -9583,7 +8215,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C162">
         <v>155</v>
@@ -9614,7 +8246,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C163">
         <v>163</v>
@@ -9645,7 +8277,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C164">
         <v>157</v>
@@ -9676,7 +8308,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C165">
         <v>142</v>
@@ -9707,7 +8339,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C166">
         <v>163</v>
@@ -9738,7 +8370,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C167">
         <v>145</v>
@@ -9769,7 +8401,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C168">
         <v>153</v>
@@ -9800,7 +8432,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C169">
         <v>151</v>
@@ -9831,7 +8463,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C170">
         <v>163</v>
@@ -9862,7 +8494,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C171">
         <v>168</v>
@@ -9893,7 +8525,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C172">
         <v>158</v>
@@ -9924,7 +8556,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C173">
         <v>160</v>
@@ -9955,7 +8587,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C174">
         <v>159</v>
@@ -9986,7 +8618,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C175">
         <v>153</v>
@@ -10017,7 +8649,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C176">
         <v>152</v>
@@ -10048,7 +8680,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C177">
         <v>167</v>
@@ -10079,7 +8711,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C178">
         <v>162</v>
@@ -10110,7 +8742,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C179">
         <v>159</v>
@@ -10141,7 +8773,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C180">
         <v>158</v>
@@ -10172,7 +8804,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C181">
         <v>164</v>
@@ -10203,7 +8835,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C182">
         <v>154</v>
@@ -10234,7 +8866,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C183">
         <v>155</v>
@@ -10265,7 +8897,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C184">
         <v>150</v>
@@ -10296,7 +8928,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C185">
         <v>163</v>
@@ -10327,7 +8959,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C186">
         <v>165</v>
@@ -10358,7 +8990,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C187">
         <v>161</v>
@@ -10389,7 +9021,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C188">
         <v>148</v>
@@ -10420,7 +9052,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C189">
         <v>156</v>
@@ -10451,7 +9083,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C190">
         <v>167</v>
@@ -10482,7 +9114,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C191">
         <v>153</v>
@@ -10513,7 +9145,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C192">
         <v>144</v>
@@ -10544,7 +9176,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C193">
         <v>140</v>
@@ -10575,7 +9207,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C194">
         <v>153</v>
@@ -10606,7 +9238,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C195">
         <v>169</v>
@@ -10637,7 +9269,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C196">
         <v>163</v>
@@ -10668,7 +9300,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C197">
         <v>155</v>
@@ -10699,7 +9331,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C198">
         <v>169</v>
@@ -10730,7 +9362,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C199">
         <v>154</v>
@@ -10761,7 +9393,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C200">
         <v>153</v>
@@ -10792,7 +9424,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C201">
         <v>151</v>
@@ -10823,7 +9455,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C202">
         <v>154</v>
@@ -10854,7 +9486,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C203">
         <v>163</v>
@@ -10885,7 +9517,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C204">
         <v>156</v>
@@ -10916,7 +9548,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C205">
         <v>168</v>
@@ -10947,7 +9579,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C206">
         <v>156</v>
@@ -10978,7 +9610,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C207">
         <v>168</v>
@@ -11009,7 +9641,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C208">
         <v>151</v>
@@ -11040,7 +9672,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C209">
         <v>164</v>
@@ -11071,7 +9703,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C210">
         <v>159</v>
@@ -11102,7 +9734,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C211">
         <v>149</v>
@@ -11133,7 +9765,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C212">
         <v>156</v>
@@ -11164,7 +9796,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C213">
         <v>148</v>
@@ -11195,7 +9827,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C214">
         <v>144</v>
@@ -11226,7 +9858,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C215">
         <v>155</v>

--- a/code/数据库设计/详细数据.xlsx
+++ b/code/数据库设计/详细数据.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FFBD0D-61E2-4C94-96B8-561C755137FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="city" sheetId="1" r:id="rId1"/>
-    <sheet name="battle" sheetId="2" r:id="rId2"/>
-    <sheet name="army" sheetId="3" r:id="rId3"/>
-    <sheet name="time" sheetId="4" r:id="rId4"/>
-    <sheet name="faction" sheetId="5" r:id="rId5"/>
-    <sheet name="player" sheetId="6" r:id="rId6"/>
-    <sheet name="person" sheetId="7" r:id="rId7"/>
+    <sheet name="中原城池" sheetId="8" r:id="rId2"/>
+    <sheet name="battle" sheetId="2" r:id="rId3"/>
+    <sheet name="army" sheetId="3" r:id="rId4"/>
+    <sheet name="time" sheetId="4" r:id="rId5"/>
+    <sheet name="faction" sheetId="5" r:id="rId6"/>
+    <sheet name="player" sheetId="6" r:id="rId7"/>
+    <sheet name="person" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">city!$A$1:$J$55</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="376">
   <si>
     <t>武威</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -324,6 +324,46 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>黄巾军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘虞军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶谦军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孙瓒军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马腾军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>董卓军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉王朝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙坚军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>FactionCapitalID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1042,15 +1082,248 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>琅琊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>会稽</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>南皮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平原</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>济北</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下邳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘陵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寿春</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>庐江</t>
+  </si>
+  <si>
+    <t>庐江</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钜鹿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>濮阳</t>
+  </si>
+  <si>
+    <t>焦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈留</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋阳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上棠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>许昌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汝南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江夏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛阳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新野</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>弘农</t>
+  </si>
+  <si>
+    <t>弘农</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江陵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长安</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上庸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永安</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,32,29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31,28,26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,29,24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,23,20,24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29,15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29,14,24,19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,19,25,27,20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>27,22,17,20,18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>33,23,17,21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,19,27,24,9,23,17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,24,25,9,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,23,17,8,13,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,23,20,18,13,6,16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,12,6,13,17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广陵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,14,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,19,15,11,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,18,16,8,7,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,15,3,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,14,3,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,10,20,8,18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,18,9,7,2,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,13,8,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,12,17,16,13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,11,2,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,10,1,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7,8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1061,7 +1334,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -1158,7 +1431,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
@@ -1169,10 +1442,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="输出" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1450,30 +1726,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>48</v>
@@ -1502,11 +1778,8 @@
       <c r="J1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1535,7 +1808,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1564,7 +1837,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1593,7 +1866,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1622,7 +1895,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1651,7 +1924,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1680,7 +1953,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1709,7 +1982,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1738,12 +2011,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -1767,12 +2040,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -1796,7 +2069,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1825,7 +2098,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1854,7 +2127,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1883,7 +2156,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1912,7 +2185,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1941,7 +2214,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1970,7 +2243,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1999,7 +2272,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2028,7 +2301,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2057,7 +2330,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2086,7 +2359,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2115,12 +2388,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="C23">
         <v>100</v>
@@ -2144,7 +2417,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2173,7 +2446,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2202,7 +2475,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2231,7 +2504,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2260,7 +2533,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2289,7 +2562,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2318,7 +2591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2347,7 +2620,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2376,7 +2649,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2405,7 +2678,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2434,7 +2707,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2463,7 +2736,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2492,7 +2765,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2521,7 +2794,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2550,7 +2823,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2579,7 +2852,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2608,7 +2881,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2637,7 +2910,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2666,7 +2939,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2695,7 +2968,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2724,7 +2997,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2753,7 +3026,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2782,7 +3055,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2811,7 +3084,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2840,7 +3113,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2869,7 +3142,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2898,7 +3171,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2927,7 +3200,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2956,7 +3229,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2986,7 +3259,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J55" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:J55">
     <sortState ref="A2:J55">
       <sortCondition ref="B1:B55"/>
     </sortState>
@@ -2998,24 +3271,1202 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
+      <c r="I2">
+        <v>60</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>1000</v>
+      </c>
+      <c r="I3">
+        <v>60</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>1000</v>
+      </c>
+      <c r="I4">
+        <v>60</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>1000</v>
+      </c>
+      <c r="I5">
+        <v>60</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>1000</v>
+      </c>
+      <c r="I6">
+        <v>60</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>1000</v>
+      </c>
+      <c r="I7">
+        <v>60</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>1000</v>
+      </c>
+      <c r="I8">
+        <v>60</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>1000</v>
+      </c>
+      <c r="I9">
+        <v>60</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>1000</v>
+      </c>
+      <c r="I10">
+        <v>60</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>1000</v>
+      </c>
+      <c r="I11">
+        <v>60</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>1000</v>
+      </c>
+      <c r="I12">
+        <v>60</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>1000</v>
+      </c>
+      <c r="I13">
+        <v>60</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>1000</v>
+      </c>
+      <c r="I14">
+        <v>60</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>1000</v>
+      </c>
+      <c r="I15">
+        <v>60</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>1000</v>
+      </c>
+      <c r="I16">
+        <v>60</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>324</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>1000</v>
+      </c>
+      <c r="I17">
+        <v>60</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>325</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>1000</v>
+      </c>
+      <c r="I18">
+        <v>60</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>1000</v>
+      </c>
+      <c r="I19">
+        <v>60</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>327</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>1000</v>
+      </c>
+      <c r="I20">
+        <v>60</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>328</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>1000</v>
+      </c>
+      <c r="I21">
+        <v>60</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>329</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>1000</v>
+      </c>
+      <c r="I22">
+        <v>60</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>330</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>1000</v>
+      </c>
+      <c r="I23">
+        <v>60</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>1000</v>
+      </c>
+      <c r="I24">
+        <v>60</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>331</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>1000</v>
+      </c>
+      <c r="I25">
+        <v>60</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>332</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <v>1000</v>
+      </c>
+      <c r="I26">
+        <v>60</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>333</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <v>1000</v>
+      </c>
+      <c r="I27">
+        <v>60</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>334</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <v>1000</v>
+      </c>
+      <c r="I28">
+        <v>60</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>335</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29">
+        <v>1000</v>
+      </c>
+      <c r="I29">
+        <v>60</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>336</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <v>1000</v>
+      </c>
+      <c r="I30">
+        <v>60</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>337</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <v>1000</v>
+      </c>
+      <c r="I31">
+        <v>60</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>100</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>1000</v>
+      </c>
+      <c r="I32">
+        <v>60</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>339</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>100</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+      <c r="H33">
+        <v>1000</v>
+      </c>
+      <c r="I33">
+        <v>60</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>340</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>100</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>1000</v>
+      </c>
+      <c r="I34">
+        <v>60</v>
+      </c>
+      <c r="J34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>341</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>100</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>1000</v>
+      </c>
+      <c r="I35">
+        <v>60</v>
+      </c>
+      <c r="J35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>342</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>100</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+      <c r="H36">
+        <v>1000</v>
+      </c>
+      <c r="I36">
+        <v>60</v>
+      </c>
+      <c r="J36">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
@@ -3041,26 +4492,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -3091,24 +4542,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>71</v>
       </c>
@@ -3125,34 +4576,174 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D1"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C10">
+        <v>108</v>
+      </c>
+      <c r="D10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>72</v>
+      </c>
+      <c r="C11">
+        <v>192</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3162,28 +4753,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -3195,67 +4786,67 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="4"/>
+    <col min="6" max="6" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B1" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="C1" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D1" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="E1" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="F1" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="G1" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="H1" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="I1" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="J1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C2">
         <v>155</v>
@@ -3281,12 +4872,12 @@
       </c>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C3">
         <v>161</v>
@@ -3312,12 +4903,12 @@
       </c>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C4">
         <v>155</v>
@@ -3343,12 +4934,12 @@
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C5">
         <v>135</v>
@@ -3374,12 +4965,12 @@
       </c>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C6">
         <v>139</v>
@@ -3405,12 +4996,12 @@
       </c>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C7">
         <v>156</v>
@@ -3436,12 +5027,12 @@
       </c>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C8">
         <v>153</v>
@@ -3467,12 +5058,12 @@
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C9">
         <v>132</v>
@@ -3498,12 +5089,12 @@
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C10">
         <v>132</v>
@@ -3529,12 +5120,12 @@
       </c>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="C11">
         <v>152</v>
@@ -3560,12 +5151,12 @@
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C12">
         <v>169</v>
@@ -3591,12 +5182,12 @@
       </c>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C13">
         <v>166</v>
@@ -3622,12 +5213,12 @@
       </c>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C14">
         <v>155</v>
@@ -3653,12 +5244,12 @@
       </c>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="C15">
         <v>168</v>
@@ -3684,12 +5275,12 @@
       </c>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C16">
         <v>151</v>
@@ -3715,12 +5306,12 @@
       </c>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C17">
         <v>169</v>
@@ -3746,12 +5337,12 @@
       </c>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C18">
         <v>168</v>
@@ -3777,12 +5368,12 @@
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C19">
         <v>163</v>
@@ -3808,12 +5399,12 @@
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C20">
         <v>164</v>
@@ -3839,12 +5430,12 @@
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C21">
         <v>169</v>
@@ -3870,12 +5461,12 @@
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C22">
         <v>154</v>
@@ -3901,12 +5492,12 @@
       </c>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C23">
         <v>132</v>
@@ -3932,12 +5523,12 @@
       </c>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C24">
         <v>161</v>
@@ -3963,12 +5554,12 @@
       </c>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C25">
         <v>165</v>
@@ -3994,12 +5585,12 @@
       </c>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C26">
         <v>157</v>
@@ -4025,12 +5616,12 @@
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C27">
         <v>160</v>
@@ -4056,12 +5647,12 @@
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C28">
         <v>167</v>
@@ -4087,12 +5678,12 @@
       </c>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C29">
         <v>168</v>
@@ -4118,12 +5709,12 @@
       </c>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="C30">
         <v>151</v>
@@ -4149,12 +5740,12 @@
       </c>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C31">
         <v>169</v>
@@ -4180,12 +5771,12 @@
       </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C32">
         <v>141</v>
@@ -4211,12 +5802,12 @@
       </c>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C33">
         <v>145</v>
@@ -4242,12 +5833,12 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C34">
         <v>146</v>
@@ -4273,12 +5864,12 @@
       </c>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C35">
         <v>163</v>
@@ -4304,12 +5895,12 @@
       </c>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C36">
         <v>156</v>
@@ -4335,12 +5926,12 @@
       </c>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="C37">
         <v>147</v>
@@ -4366,12 +5957,12 @@
       </c>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="C38">
         <v>160</v>
@@ -4397,12 +5988,12 @@
       </c>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C39">
         <v>137</v>
@@ -4428,12 +6019,12 @@
       </c>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C40">
         <v>154</v>
@@ -4459,12 +6050,12 @@
       </c>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C41">
         <v>168</v>
@@ -4490,12 +6081,12 @@
       </c>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C42">
         <v>149</v>
@@ -4521,12 +6112,12 @@
       </c>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C43">
         <v>169</v>
@@ -4552,12 +6143,12 @@
       </c>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C44">
         <v>156</v>
@@ -4583,12 +6174,12 @@
       </c>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C45">
         <v>153</v>
@@ -4614,12 +6205,12 @@
       </c>
       <c r="K45" s="5"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="C46">
         <v>153</v>
@@ -4645,12 +6236,12 @@
       </c>
       <c r="K46" s="5"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C47">
         <v>153</v>
@@ -4676,12 +6267,12 @@
       </c>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C48">
         <v>162</v>
@@ -4707,12 +6298,12 @@
       </c>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C49">
         <v>163</v>
@@ -4738,12 +6329,12 @@
       </c>
       <c r="K49" s="5"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C50">
         <v>168</v>
@@ -4769,12 +6360,12 @@
       </c>
       <c r="K50" s="5"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C51">
         <v>159</v>
@@ -4800,12 +6391,12 @@
       </c>
       <c r="K51" s="5"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C52">
         <v>145</v>
@@ -4831,12 +6422,12 @@
       </c>
       <c r="K52" s="5"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C53">
         <v>158</v>
@@ -4862,12 +6453,12 @@
       </c>
       <c r="K53" s="5"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C54">
         <v>155</v>
@@ -4893,12 +6484,12 @@
       </c>
       <c r="K54" s="5"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C55">
         <v>158</v>
@@ -4924,12 +6515,12 @@
       </c>
       <c r="K55" s="5"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C56">
         <v>160</v>
@@ -4955,12 +6546,12 @@
       </c>
       <c r="K56" s="5"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C57">
         <v>164</v>
@@ -4986,12 +6577,12 @@
       </c>
       <c r="K57" s="5"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="C58">
         <v>158</v>
@@ -5017,12 +6608,12 @@
       </c>
       <c r="K58" s="5"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C59">
         <v>162</v>
@@ -5048,12 +6639,12 @@
       </c>
       <c r="K59" s="5"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C60">
         <v>160</v>
@@ -5079,12 +6670,12 @@
       </c>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C61">
         <v>146</v>
@@ -5110,12 +6701,12 @@
       </c>
       <c r="K61" s="5"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C62">
         <v>155</v>
@@ -5141,12 +6732,12 @@
       </c>
       <c r="K62" s="5"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C63">
         <v>156</v>
@@ -5172,12 +6763,12 @@
       </c>
       <c r="K63" s="5"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C64">
         <v>149</v>
@@ -5203,12 +6794,12 @@
       </c>
       <c r="K64" s="5"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C65">
         <v>164</v>
@@ -5234,12 +6825,12 @@
       </c>
       <c r="K65" s="5"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C66">
         <v>154</v>
@@ -5265,12 +6856,12 @@
       </c>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C67">
         <v>163</v>
@@ -5296,12 +6887,12 @@
       </c>
       <c r="K67" s="5"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C68">
         <v>159</v>
@@ -5327,12 +6918,12 @@
       </c>
       <c r="K68" s="5"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C69">
         <v>163</v>
@@ -5358,12 +6949,12 @@
       </c>
       <c r="K69" s="5"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C70">
         <v>155</v>
@@ -5389,12 +6980,12 @@
       </c>
       <c r="K70" s="5"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C71">
         <v>156</v>
@@ -5420,12 +7011,12 @@
       </c>
       <c r="K71" s="5"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C72">
         <v>161</v>
@@ -5451,12 +7042,12 @@
       </c>
       <c r="K72" s="5"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C73">
         <v>158</v>
@@ -5482,12 +7073,12 @@
       </c>
       <c r="K73" s="5"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C74">
         <v>146</v>
@@ -5513,12 +7104,12 @@
       </c>
       <c r="K74" s="5"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C75">
         <v>157</v>
@@ -5544,12 +7135,12 @@
       </c>
       <c r="K75" s="5"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C76">
         <v>155</v>
@@ -5575,12 +7166,12 @@
       </c>
       <c r="K76" s="5"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C77">
         <v>132</v>
@@ -5606,12 +7197,12 @@
       </c>
       <c r="K77" s="5"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C78">
         <v>154</v>
@@ -5637,12 +7228,12 @@
       </c>
       <c r="K78" s="5"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C79">
         <v>167</v>
@@ -5668,12 +7259,12 @@
       </c>
       <c r="K79" s="5"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C80">
         <v>148</v>
@@ -5699,12 +7290,12 @@
       </c>
       <c r="K80" s="5"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C81">
         <v>148</v>
@@ -5730,12 +7321,12 @@
       </c>
       <c r="K81" s="5"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C82">
         <v>155</v>
@@ -5761,12 +7352,12 @@
       </c>
       <c r="K82" s="5"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C83">
         <v>147</v>
@@ -5792,12 +7383,12 @@
       </c>
       <c r="K83" s="5"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C84">
         <v>167</v>
@@ -5823,12 +7414,12 @@
       </c>
       <c r="K84" s="5"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C85">
         <v>168</v>
@@ -5854,12 +7445,12 @@
       </c>
       <c r="K85" s="5"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C86">
         <v>159</v>
@@ -5885,12 +7476,12 @@
       </c>
       <c r="K86" s="5"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C87">
         <v>155</v>
@@ -5916,12 +7507,12 @@
       </c>
       <c r="K87" s="5"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C88">
         <v>156</v>
@@ -5947,12 +7538,12 @@
       </c>
       <c r="K88" s="5"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C89">
         <v>153</v>
@@ -5978,12 +7569,12 @@
       </c>
       <c r="K89" s="5"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C90">
         <v>151</v>
@@ -6009,12 +7600,12 @@
       </c>
       <c r="K90" s="5"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C91">
         <v>155</v>
@@ -6040,12 +7631,12 @@
       </c>
       <c r="K91" s="5"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="C92">
         <v>157</v>
@@ -6071,12 +7662,12 @@
       </c>
       <c r="K92" s="5"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C93">
         <v>159</v>
@@ -6102,12 +7693,12 @@
       </c>
       <c r="K93" s="5"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C94">
         <v>163</v>
@@ -6133,12 +7724,12 @@
       </c>
       <c r="K94" s="5"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C95">
         <v>160</v>
@@ -6164,12 +7755,12 @@
       </c>
       <c r="K95" s="5"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C96">
         <v>148</v>
@@ -6195,12 +7786,12 @@
       </c>
       <c r="K96" s="5"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C97">
         <v>150</v>
@@ -6226,12 +7817,12 @@
       </c>
       <c r="K97" s="5"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C98">
         <v>156</v>
@@ -6257,12 +7848,12 @@
       </c>
       <c r="K98" s="5"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C99">
         <v>168</v>
@@ -6288,12 +7879,12 @@
       </c>
       <c r="K99" s="5"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C100">
         <v>169</v>
@@ -6319,12 +7910,12 @@
       </c>
       <c r="K100" s="5"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C101">
         <v>165</v>
@@ -6350,12 +7941,12 @@
       </c>
       <c r="K101" s="5"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="C102">
         <v>142</v>
@@ -6381,12 +7972,12 @@
       </c>
       <c r="K102" s="5"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C103">
         <v>147</v>
@@ -6412,12 +8003,12 @@
       </c>
       <c r="K103" s="5"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C104">
         <v>163</v>
@@ -6443,12 +8034,12 @@
       </c>
       <c r="K104" s="5"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C105">
         <v>168</v>
@@ -6474,12 +8065,12 @@
       </c>
       <c r="K105" s="5"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C106">
         <v>165</v>
@@ -6505,12 +8096,12 @@
       </c>
       <c r="K106" s="5"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C107">
         <v>169</v>
@@ -6536,12 +8127,12 @@
       </c>
       <c r="K107" s="5"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="C108">
         <v>156</v>
@@ -6567,12 +8158,12 @@
       </c>
       <c r="K108" s="5"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C109">
         <v>145</v>
@@ -6598,12 +8189,12 @@
       </c>
       <c r="K109" s="5"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C110">
         <v>162</v>
@@ -6629,12 +8220,12 @@
       </c>
       <c r="K110" s="5"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C111">
         <v>139</v>
@@ -6660,12 +8251,12 @@
       </c>
       <c r="K111" s="5"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C112">
         <v>156</v>
@@ -6691,12 +8282,12 @@
       </c>
       <c r="K112" s="5"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C113">
         <v>161</v>
@@ -6722,12 +8313,12 @@
       </c>
       <c r="K113" s="5"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C114">
         <v>169</v>
@@ -6753,12 +8344,12 @@
       </c>
       <c r="K114" s="5"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C115">
         <v>162</v>
@@ -6784,12 +8375,12 @@
       </c>
       <c r="K115" s="5"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C116">
         <v>169</v>
@@ -6815,12 +8406,12 @@
       </c>
       <c r="K116" s="5"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C117">
         <v>164</v>
@@ -6846,12 +8437,12 @@
       </c>
       <c r="K117" s="5"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C118">
         <v>161</v>
@@ -6877,12 +8468,12 @@
       </c>
       <c r="K118" s="5"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C119">
         <v>169</v>
@@ -6908,12 +8499,12 @@
       </c>
       <c r="K119" s="5"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C120">
         <v>165</v>
@@ -6939,12 +8530,12 @@
       </c>
       <c r="K120" s="5"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C121">
         <v>162</v>
@@ -6970,12 +8561,12 @@
       </c>
       <c r="K121" s="5"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C122">
         <v>159</v>
@@ -7001,12 +8592,12 @@
       </c>
       <c r="K122" s="5"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C123">
         <v>163</v>
@@ -7032,12 +8623,12 @@
       </c>
       <c r="K123" s="5"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C124">
         <v>153</v>
@@ -7063,12 +8654,12 @@
       </c>
       <c r="K124" s="5"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C125">
         <v>169</v>
@@ -7094,12 +8685,12 @@
       </c>
       <c r="K125" s="5"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C126">
         <v>150</v>
@@ -7125,12 +8716,12 @@
       </c>
       <c r="K126" s="5"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C127">
         <v>146</v>
@@ -7156,12 +8747,12 @@
       </c>
       <c r="K127" s="5"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C128">
         <v>167</v>
@@ -7187,12 +8778,12 @@
       </c>
       <c r="K128" s="5"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C129">
         <v>156</v>
@@ -7218,12 +8809,12 @@
       </c>
       <c r="K129" s="5"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C130">
         <v>157</v>
@@ -7249,12 +8840,12 @@
       </c>
       <c r="K130" s="5"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C131">
         <v>164</v>
@@ -7280,12 +8871,12 @@
       </c>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C132">
         <v>156</v>
@@ -7311,12 +8902,12 @@
       </c>
       <c r="K132" s="5"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C133">
         <v>165</v>
@@ -7342,12 +8933,12 @@
       </c>
       <c r="K133" s="5"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C134">
         <v>157</v>
@@ -7373,12 +8964,12 @@
       </c>
       <c r="K134" s="5"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C135">
         <v>166</v>
@@ -7404,12 +8995,12 @@
       </c>
       <c r="K135" s="5"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C136">
         <v>169</v>
@@ -7435,12 +9026,12 @@
       </c>
       <c r="K136" s="5"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C137">
         <v>162</v>
@@ -7466,12 +9057,12 @@
       </c>
       <c r="K137" s="5"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C138">
         <v>154</v>
@@ -7497,12 +9088,12 @@
       </c>
       <c r="K138" s="5"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C139">
         <v>150</v>
@@ -7528,12 +9119,12 @@
       </c>
       <c r="K139" s="5"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C140">
         <v>162</v>
@@ -7559,12 +9150,12 @@
       </c>
       <c r="K140" s="5"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C141">
         <v>162</v>
@@ -7590,12 +9181,12 @@
       </c>
       <c r="K141" s="5"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C142">
         <v>163</v>
@@ -7621,12 +9212,12 @@
       </c>
       <c r="K142" s="5"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C143">
         <v>168</v>
@@ -7652,12 +9243,12 @@
       </c>
       <c r="K143" s="5"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C144">
         <v>137</v>
@@ -7683,12 +9274,12 @@
       </c>
       <c r="K144" s="5"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C145">
         <v>152</v>
@@ -7714,12 +9305,12 @@
       </c>
       <c r="K145" s="5"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C146">
         <v>156</v>
@@ -7745,12 +9336,12 @@
       </c>
       <c r="K146" s="5"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C147">
         <v>151</v>
@@ -7776,12 +9367,12 @@
       </c>
       <c r="K147" s="5"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C148">
         <v>161</v>
@@ -7807,12 +9398,12 @@
       </c>
       <c r="K148" s="5"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C149">
         <v>151</v>
@@ -7838,12 +9429,12 @@
       </c>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C150">
         <v>166</v>
@@ -7869,12 +9460,12 @@
       </c>
       <c r="K150" s="5"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C151">
         <v>163</v>
@@ -7900,12 +9491,12 @@
       </c>
       <c r="K151" s="5"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C152">
         <v>157</v>
@@ -7931,12 +9522,12 @@
       </c>
       <c r="K152" s="5"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C153">
         <v>157</v>
@@ -7962,12 +9553,12 @@
       </c>
       <c r="K153" s="5"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C154">
         <v>163</v>
@@ -7993,12 +9584,12 @@
       </c>
       <c r="K154" s="5"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C155">
         <v>167</v>
@@ -8024,12 +9615,12 @@
       </c>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C156">
         <v>165</v>
@@ -8055,12 +9646,12 @@
       </c>
       <c r="K156" s="5"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C157">
         <v>151</v>
@@ -8086,12 +9677,12 @@
       </c>
       <c r="K157" s="5"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C158">
         <v>169</v>
@@ -8117,12 +9708,12 @@
       </c>
       <c r="K158" s="5"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C159">
         <v>147</v>
@@ -8148,12 +9739,12 @@
       </c>
       <c r="K159" s="5"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C160">
         <v>155</v>
@@ -8179,12 +9770,12 @@
       </c>
       <c r="K160" s="5"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C161">
         <v>152</v>
@@ -8210,12 +9801,12 @@
       </c>
       <c r="K161" s="5"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C162">
         <v>155</v>
@@ -8241,12 +9832,12 @@
       </c>
       <c r="K162" s="5"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C163">
         <v>163</v>
@@ -8272,12 +9863,12 @@
       </c>
       <c r="K163" s="5"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C164">
         <v>157</v>
@@ -8303,12 +9894,12 @@
       </c>
       <c r="K164" s="5"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C165">
         <v>142</v>
@@ -8334,12 +9925,12 @@
       </c>
       <c r="K165" s="5"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C166">
         <v>163</v>
@@ -8365,12 +9956,12 @@
       </c>
       <c r="K166" s="5"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C167">
         <v>145</v>
@@ -8396,12 +9987,12 @@
       </c>
       <c r="K167" s="5"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C168">
         <v>153</v>
@@ -8427,12 +10018,12 @@
       </c>
       <c r="K168" s="5"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C169">
         <v>151</v>
@@ -8458,12 +10049,12 @@
       </c>
       <c r="K169" s="5"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C170">
         <v>163</v>
@@ -8489,12 +10080,12 @@
       </c>
       <c r="K170" s="5"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C171">
         <v>168</v>
@@ -8520,12 +10111,12 @@
       </c>
       <c r="K171" s="5"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C172">
         <v>158</v>
@@ -8551,12 +10142,12 @@
       </c>
       <c r="K172" s="5"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C173">
         <v>160</v>
@@ -8582,12 +10173,12 @@
       </c>
       <c r="K173" s="5"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C174">
         <v>159</v>
@@ -8613,12 +10204,12 @@
       </c>
       <c r="K174" s="5"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C175">
         <v>153</v>
@@ -8644,12 +10235,12 @@
       </c>
       <c r="K175" s="5"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C176">
         <v>152</v>
@@ -8675,12 +10266,12 @@
       </c>
       <c r="K176" s="5"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C177">
         <v>167</v>
@@ -8706,12 +10297,12 @@
       </c>
       <c r="K177" s="5"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C178">
         <v>162</v>
@@ -8737,12 +10328,12 @@
       </c>
       <c r="K178" s="5"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C179">
         <v>159</v>
@@ -8768,12 +10359,12 @@
       </c>
       <c r="K179" s="5"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C180">
         <v>158</v>
@@ -8799,12 +10390,12 @@
       </c>
       <c r="K180" s="5"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C181">
         <v>164</v>
@@ -8830,12 +10421,12 @@
       </c>
       <c r="K181" s="5"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C182">
         <v>154</v>
@@ -8861,12 +10452,12 @@
       </c>
       <c r="K182" s="5"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C183">
         <v>155</v>
@@ -8892,12 +10483,12 @@
       </c>
       <c r="K183" s="5"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C184">
         <v>150</v>
@@ -8923,12 +10514,12 @@
       </c>
       <c r="K184" s="5"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C185">
         <v>163</v>
@@ -8954,12 +10545,12 @@
       </c>
       <c r="K185" s="5"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C186">
         <v>165</v>
@@ -8985,12 +10576,12 @@
       </c>
       <c r="K186" s="5"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C187">
         <v>161</v>
@@ -9016,12 +10607,12 @@
       </c>
       <c r="K187" s="5"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C188">
         <v>148</v>
@@ -9047,12 +10638,12 @@
       </c>
       <c r="K188" s="5"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C189">
         <v>156</v>
@@ -9078,12 +10669,12 @@
       </c>
       <c r="K189" s="5"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C190">
         <v>167</v>
@@ -9109,12 +10700,12 @@
       </c>
       <c r="K190" s="5"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C191">
         <v>153</v>
@@ -9140,12 +10731,12 @@
       </c>
       <c r="K191" s="5"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C192">
         <v>144</v>
@@ -9171,12 +10762,12 @@
       </c>
       <c r="K192" s="5"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C193">
         <v>140</v>
@@ -9202,12 +10793,12 @@
       </c>
       <c r="K193" s="5"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C194">
         <v>153</v>
@@ -9233,12 +10824,12 @@
       </c>
       <c r="K194" s="5"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C195">
         <v>169</v>
@@ -9264,12 +10855,12 @@
       </c>
       <c r="K195" s="5"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C196">
         <v>163</v>
@@ -9295,12 +10886,12 @@
       </c>
       <c r="K196" s="5"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C197">
         <v>155</v>
@@ -9326,12 +10917,12 @@
       </c>
       <c r="K197" s="5"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C198">
         <v>169</v>
@@ -9357,12 +10948,12 @@
       </c>
       <c r="K198" s="5"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C199">
         <v>154</v>
@@ -9388,12 +10979,12 @@
       </c>
       <c r="K199" s="5"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C200">
         <v>153</v>
@@ -9419,12 +11010,12 @@
       </c>
       <c r="K200" s="5"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C201">
         <v>151</v>
@@ -9450,12 +11041,12 @@
       </c>
       <c r="K201" s="5"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C202">
         <v>154</v>
@@ -9481,12 +11072,12 @@
       </c>
       <c r="K202" s="5"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C203">
         <v>163</v>
@@ -9512,12 +11103,12 @@
       </c>
       <c r="K203" s="5"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C204">
         <v>156</v>
@@ -9543,12 +11134,12 @@
       </c>
       <c r="K204" s="5"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C205">
         <v>168</v>
@@ -9574,12 +11165,12 @@
       </c>
       <c r="K205" s="5"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C206">
         <v>156</v>
@@ -9605,12 +11196,12 @@
       </c>
       <c r="K206" s="5"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C207">
         <v>168</v>
@@ -9636,12 +11227,12 @@
       </c>
       <c r="K207" s="5"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C208">
         <v>151</v>
@@ -9667,12 +11258,12 @@
       </c>
       <c r="K208" s="5"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C209">
         <v>164</v>
@@ -9698,12 +11289,12 @@
       </c>
       <c r="K209" s="5"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C210">
         <v>159</v>
@@ -9729,12 +11320,12 @@
       </c>
       <c r="K210" s="5"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C211">
         <v>149</v>
@@ -9760,12 +11351,12 @@
       </c>
       <c r="K211" s="5"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C212">
         <v>156</v>
@@ -9791,12 +11382,12 @@
       </c>
       <c r="K212" s="5"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C213">
         <v>148</v>
@@ -9822,12 +11413,12 @@
       </c>
       <c r="K213" s="5"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C214">
         <v>144</v>
@@ -9853,12 +11444,12 @@
       </c>
       <c r="K214" s="5"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C215">
         <v>155</v>

--- a/code/数据库设计/详细数据.xlsx
+++ b/code/数据库设计/详细数据.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710267E9-03AF-479A-B469-8A8B8C7E8549}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="city" sheetId="1" r:id="rId1"/>
-    <sheet name="中原城池" sheetId="8" r:id="rId2"/>
-    <sheet name="battle" sheetId="2" r:id="rId3"/>
-    <sheet name="army" sheetId="3" r:id="rId4"/>
-    <sheet name="time" sheetId="4" r:id="rId5"/>
-    <sheet name="faction" sheetId="5" r:id="rId6"/>
-    <sheet name="player" sheetId="6" r:id="rId7"/>
-    <sheet name="person" sheetId="7" r:id="rId8"/>
+    <sheet name="battle" sheetId="2" r:id="rId2"/>
+    <sheet name="army" sheetId="3" r:id="rId3"/>
+    <sheet name="time" sheetId="4" r:id="rId4"/>
+    <sheet name="faction" sheetId="5" r:id="rId5"/>
+    <sheet name="player" sheetId="6" r:id="rId6"/>
+    <sheet name="person" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">city!$A$1:$J$55</definedName>
@@ -24,17 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
   <si>
     <t>武威</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1082,259 +1077,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>琅琊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>会稽</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>南皮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平原</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>济北</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下邳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘陵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>寿春</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>庐江</t>
-  </si>
-  <si>
-    <t>庐江</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>钜鹿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>濮阳</t>
-  </si>
-  <si>
-    <t>焦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈留</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>晋阳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上棠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>许昌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汝南</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>江夏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛阳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新野</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>弘农</t>
-  </si>
-  <si>
-    <t>弘农</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>江陵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>长安</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上庸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>永安</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,32,29</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>31,28,26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,29,24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,23,20,24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>29,15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>29,14,24,19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>28,19,25,27,20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>27,22,17,20,18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>28,27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>33,23,17,21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>22,16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,19,27,24,9,23,17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,24,25,9,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,23,17,8,13,9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>22,23,20,18,13,6,16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21,12,6,13,17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>广陵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,14,11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,19,15,11,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>17,18,16,8,7,6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,15,3,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,14,3,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,10,20,8,18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13,18,9,7,2,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,13,8,6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,12,17,16,13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>14,11,2,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,10,1,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,7,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cityConnCityID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -1431,7 +1189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
@@ -1442,13 +1200,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="输出" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1726,28 +1481,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>312</v>
       </c>
@@ -1779,7 +1534,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1808,7 +1563,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1837,7 +1592,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1866,7 +1621,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1895,7 +1650,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1924,7 +1679,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1953,7 +1708,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1982,7 +1737,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2011,12 +1766,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -2040,12 +1795,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -2069,7 +1824,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2098,7 +1853,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2127,7 +1882,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2156,7 +1911,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2185,7 +1940,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2214,7 +1969,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2243,7 +1998,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2272,7 +2027,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2301,7 +2056,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2330,7 +2085,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2359,7 +2114,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2388,12 +2143,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C23">
         <v>100</v>
@@ -2417,7 +2172,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2446,7 +2201,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2475,7 +2230,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2504,7 +2259,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2533,7 +2288,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2562,7 +2317,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2591,7 +2346,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2620,7 +2375,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2649,7 +2404,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2678,7 +2433,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2707,7 +2462,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2736,7 +2491,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2765,7 +2520,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2794,7 +2549,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2823,7 +2578,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2852,7 +2607,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2881,7 +2636,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2910,7 +2665,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2939,7 +2694,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2968,7 +2723,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2997,7 +2752,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3026,7 +2781,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3055,7 +2810,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3084,7 +2839,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3113,7 +2868,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3142,7 +2897,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3171,7 +2926,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3200,7 +2955,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3229,7 +2984,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3259,7 +3014,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J55">
+  <autoFilter ref="A1:J55" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A2:J55">
       <sortCondition ref="B1:B55"/>
     </sortState>
@@ -3271,1202 +3026,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>1000</v>
-      </c>
-      <c r="I2">
-        <v>60</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>1000</v>
-      </c>
-      <c r="I3">
-        <v>60</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4">
-        <v>1000</v>
-      </c>
-      <c r="I4">
-        <v>60</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>314</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>1000</v>
-      </c>
-      <c r="I5">
-        <v>60</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>100</v>
-      </c>
-      <c r="H6">
-        <v>1000</v>
-      </c>
-      <c r="I6">
-        <v>60</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
-      <c r="H7">
-        <v>1000</v>
-      </c>
-      <c r="I7">
-        <v>60</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>100</v>
-      </c>
-      <c r="H8">
-        <v>1000</v>
-      </c>
-      <c r="I8">
-        <v>60</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>318</v>
-      </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-      <c r="H9">
-        <v>1000</v>
-      </c>
-      <c r="I9">
-        <v>60</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>100</v>
-      </c>
-      <c r="H10">
-        <v>1000</v>
-      </c>
-      <c r="I10">
-        <v>60</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>319</v>
-      </c>
-      <c r="C11">
-        <v>100</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>100</v>
-      </c>
-      <c r="H11">
-        <v>1000</v>
-      </c>
-      <c r="I11">
-        <v>60</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>100</v>
-      </c>
-      <c r="H12">
-        <v>1000</v>
-      </c>
-      <c r="I12">
-        <v>60</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13">
-        <v>100</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>100</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <v>100</v>
-      </c>
-      <c r="H13">
-        <v>1000</v>
-      </c>
-      <c r="I13">
-        <v>60</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>320</v>
-      </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-      <c r="G14">
-        <v>100</v>
-      </c>
-      <c r="H14">
-        <v>1000</v>
-      </c>
-      <c r="I14">
-        <v>60</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>321</v>
-      </c>
-      <c r="C15">
-        <v>100</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="G15">
-        <v>100</v>
-      </c>
-      <c r="H15">
-        <v>1000</v>
-      </c>
-      <c r="I15">
-        <v>60</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>322</v>
-      </c>
-      <c r="C16">
-        <v>100</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>100</v>
-      </c>
-      <c r="F16">
-        <v>10</v>
-      </c>
-      <c r="G16">
-        <v>100</v>
-      </c>
-      <c r="H16">
-        <v>1000</v>
-      </c>
-      <c r="I16">
-        <v>60</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>324</v>
-      </c>
-      <c r="C17">
-        <v>100</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>100</v>
-      </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-      <c r="G17">
-        <v>100</v>
-      </c>
-      <c r="H17">
-        <v>1000</v>
-      </c>
-      <c r="I17">
-        <v>60</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>325</v>
-      </c>
-      <c r="C18">
-        <v>100</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>100</v>
-      </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <v>100</v>
-      </c>
-      <c r="H18">
-        <v>1000</v>
-      </c>
-      <c r="I18">
-        <v>60</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>326</v>
-      </c>
-      <c r="C19">
-        <v>100</v>
-      </c>
-      <c r="D19">
-        <v>10</v>
-      </c>
-      <c r="E19">
-        <v>100</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19">
-        <v>100</v>
-      </c>
-      <c r="H19">
-        <v>1000</v>
-      </c>
-      <c r="I19">
-        <v>60</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>327</v>
-      </c>
-      <c r="C20">
-        <v>100</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>100</v>
-      </c>
-      <c r="F20">
-        <v>10</v>
-      </c>
-      <c r="G20">
-        <v>100</v>
-      </c>
-      <c r="H20">
-        <v>1000</v>
-      </c>
-      <c r="I20">
-        <v>60</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>328</v>
-      </c>
-      <c r="C21">
-        <v>100</v>
-      </c>
-      <c r="D21">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <v>100</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="G21">
-        <v>100</v>
-      </c>
-      <c r="H21">
-        <v>1000</v>
-      </c>
-      <c r="I21">
-        <v>60</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>329</v>
-      </c>
-      <c r="C22">
-        <v>100</v>
-      </c>
-      <c r="D22">
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <v>100</v>
-      </c>
-      <c r="F22">
-        <v>10</v>
-      </c>
-      <c r="G22">
-        <v>100</v>
-      </c>
-      <c r="H22">
-        <v>1000</v>
-      </c>
-      <c r="I22">
-        <v>60</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>330</v>
-      </c>
-      <c r="C23">
-        <v>100</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-      <c r="E23">
-        <v>100</v>
-      </c>
-      <c r="F23">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>100</v>
-      </c>
-      <c r="H23">
-        <v>1000</v>
-      </c>
-      <c r="I23">
-        <v>60</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <v>100</v>
-      </c>
-      <c r="D24">
-        <v>10</v>
-      </c>
-      <c r="E24">
-        <v>100</v>
-      </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>100</v>
-      </c>
-      <c r="H24">
-        <v>1000</v>
-      </c>
-      <c r="I24">
-        <v>60</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>331</v>
-      </c>
-      <c r="C25">
-        <v>100</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>100</v>
-      </c>
-      <c r="F25">
-        <v>10</v>
-      </c>
-      <c r="G25">
-        <v>100</v>
-      </c>
-      <c r="H25">
-        <v>1000</v>
-      </c>
-      <c r="I25">
-        <v>60</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>332</v>
-      </c>
-      <c r="C26">
-        <v>100</v>
-      </c>
-      <c r="D26">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>100</v>
-      </c>
-      <c r="F26">
-        <v>10</v>
-      </c>
-      <c r="G26">
-        <v>100</v>
-      </c>
-      <c r="H26">
-        <v>1000</v>
-      </c>
-      <c r="I26">
-        <v>60</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>333</v>
-      </c>
-      <c r="C27">
-        <v>100</v>
-      </c>
-      <c r="D27">
-        <v>10</v>
-      </c>
-      <c r="E27">
-        <v>100</v>
-      </c>
-      <c r="F27">
-        <v>10</v>
-      </c>
-      <c r="G27">
-        <v>100</v>
-      </c>
-      <c r="H27">
-        <v>1000</v>
-      </c>
-      <c r="I27">
-        <v>60</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>334</v>
-      </c>
-      <c r="C28">
-        <v>100</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-      <c r="E28">
-        <v>100</v>
-      </c>
-      <c r="F28">
-        <v>10</v>
-      </c>
-      <c r="G28">
-        <v>100</v>
-      </c>
-      <c r="H28">
-        <v>1000</v>
-      </c>
-      <c r="I28">
-        <v>60</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>335</v>
-      </c>
-      <c r="C29">
-        <v>100</v>
-      </c>
-      <c r="D29">
-        <v>10</v>
-      </c>
-      <c r="E29">
-        <v>100</v>
-      </c>
-      <c r="F29">
-        <v>10</v>
-      </c>
-      <c r="G29">
-        <v>100</v>
-      </c>
-      <c r="H29">
-        <v>1000</v>
-      </c>
-      <c r="I29">
-        <v>60</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>336</v>
-      </c>
-      <c r="C30">
-        <v>100</v>
-      </c>
-      <c r="D30">
-        <v>10</v>
-      </c>
-      <c r="E30">
-        <v>100</v>
-      </c>
-      <c r="F30">
-        <v>10</v>
-      </c>
-      <c r="G30">
-        <v>100</v>
-      </c>
-      <c r="H30">
-        <v>1000</v>
-      </c>
-      <c r="I30">
-        <v>60</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>337</v>
-      </c>
-      <c r="C31">
-        <v>100</v>
-      </c>
-      <c r="D31">
-        <v>10</v>
-      </c>
-      <c r="E31">
-        <v>100</v>
-      </c>
-      <c r="F31">
-        <v>10</v>
-      </c>
-      <c r="G31">
-        <v>100</v>
-      </c>
-      <c r="H31">
-        <v>1000</v>
-      </c>
-      <c r="I31">
-        <v>60</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>100</v>
-      </c>
-      <c r="D32">
-        <v>10</v>
-      </c>
-      <c r="E32">
-        <v>100</v>
-      </c>
-      <c r="F32">
-        <v>10</v>
-      </c>
-      <c r="G32">
-        <v>100</v>
-      </c>
-      <c r="H32">
-        <v>1000</v>
-      </c>
-      <c r="I32">
-        <v>60</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>339</v>
-      </c>
-      <c r="C33">
-        <v>100</v>
-      </c>
-      <c r="D33">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <v>100</v>
-      </c>
-      <c r="F33">
-        <v>10</v>
-      </c>
-      <c r="G33">
-        <v>100</v>
-      </c>
-      <c r="H33">
-        <v>1000</v>
-      </c>
-      <c r="I33">
-        <v>60</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>340</v>
-      </c>
-      <c r="C34">
-        <v>100</v>
-      </c>
-      <c r="D34">
-        <v>10</v>
-      </c>
-      <c r="E34">
-        <v>100</v>
-      </c>
-      <c r="F34">
-        <v>10</v>
-      </c>
-      <c r="G34">
-        <v>100</v>
-      </c>
-      <c r="H34">
-        <v>1000</v>
-      </c>
-      <c r="I34">
-        <v>60</v>
-      </c>
-      <c r="J34">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>341</v>
-      </c>
-      <c r="C35">
-        <v>100</v>
-      </c>
-      <c r="D35">
-        <v>10</v>
-      </c>
-      <c r="E35">
-        <v>100</v>
-      </c>
-      <c r="F35">
-        <v>10</v>
-      </c>
-      <c r="G35">
-        <v>100</v>
-      </c>
-      <c r="H35">
-        <v>1000</v>
-      </c>
-      <c r="I35">
-        <v>60</v>
-      </c>
-      <c r="J35">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>342</v>
-      </c>
-      <c r="C36">
-        <v>100</v>
-      </c>
-      <c r="D36">
-        <v>10</v>
-      </c>
-      <c r="E36">
-        <v>100</v>
-      </c>
-      <c r="F36">
-        <v>10</v>
-      </c>
-      <c r="G36">
-        <v>100</v>
-      </c>
-      <c r="H36">
-        <v>1000</v>
-      </c>
-      <c r="I36">
-        <v>60</v>
-      </c>
-      <c r="J36">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
@@ -4492,26 +3069,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -4542,24 +3119,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>71</v>
       </c>
@@ -4576,23 +3153,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
@@ -4606,7 +3183,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4620,7 +3197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4634,7 +3211,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4648,7 +3225,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4662,7 +3239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4676,7 +3253,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4690,7 +3267,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4704,7 +3281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4718,7 +3295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4732,7 +3309,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4753,23 +3330,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
@@ -4786,30 +3363,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="4"/>
+    <col min="6" max="6" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>311</v>
       </c>
@@ -4841,7 +3418,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4872,7 +3449,7 @@
       </c>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4903,7 +3480,7 @@
       </c>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4934,7 +3511,7 @@
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4965,7 +3542,7 @@
       </c>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4996,7 +3573,7 @@
       </c>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5027,7 +3604,7 @@
       </c>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5058,7 +3635,7 @@
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5089,7 +3666,7 @@
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5120,7 +3697,7 @@
       </c>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5151,7 +3728,7 @@
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5182,7 +3759,7 @@
       </c>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5213,7 +3790,7 @@
       </c>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5244,7 +3821,7 @@
       </c>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5275,7 +3852,7 @@
       </c>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5306,7 +3883,7 @@
       </c>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5337,7 +3914,7 @@
       </c>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5368,7 +3945,7 @@
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5399,7 +3976,7 @@
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5430,7 +4007,7 @@
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5461,7 +4038,7 @@
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5492,7 +4069,7 @@
       </c>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5523,7 +4100,7 @@
       </c>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5554,7 +4131,7 @@
       </c>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5585,7 +4162,7 @@
       </c>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5616,7 +4193,7 @@
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5647,7 +4224,7 @@
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5678,7 +4255,7 @@
       </c>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5709,7 +4286,7 @@
       </c>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5740,7 +4317,7 @@
       </c>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5771,7 +4348,7 @@
       </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5802,7 +4379,7 @@
       </c>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5833,7 +4410,7 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5864,7 +4441,7 @@
       </c>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5895,7 +4472,7 @@
       </c>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5926,7 +4503,7 @@
       </c>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5957,7 +4534,7 @@
       </c>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5988,7 +4565,7 @@
       </c>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6019,7 +4596,7 @@
       </c>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6050,7 +4627,7 @@
       </c>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6081,7 +4658,7 @@
       </c>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6112,7 +4689,7 @@
       </c>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6143,7 +4720,7 @@
       </c>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6174,7 +4751,7 @@
       </c>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6205,7 +4782,7 @@
       </c>
       <c r="K45" s="5"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6236,7 +4813,7 @@
       </c>
       <c r="K46" s="5"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6267,7 +4844,7 @@
       </c>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6298,7 +4875,7 @@
       </c>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6329,7 +4906,7 @@
       </c>
       <c r="K49" s="5"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6360,7 +4937,7 @@
       </c>
       <c r="K50" s="5"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6391,7 +4968,7 @@
       </c>
       <c r="K51" s="5"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6422,7 +4999,7 @@
       </c>
       <c r="K52" s="5"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6453,7 +5030,7 @@
       </c>
       <c r="K53" s="5"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6484,7 +5061,7 @@
       </c>
       <c r="K54" s="5"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6515,7 +5092,7 @@
       </c>
       <c r="K55" s="5"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6546,7 +5123,7 @@
       </c>
       <c r="K56" s="5"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6577,7 +5154,7 @@
       </c>
       <c r="K57" s="5"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6608,7 +5185,7 @@
       </c>
       <c r="K58" s="5"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6639,7 +5216,7 @@
       </c>
       <c r="K59" s="5"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6670,7 +5247,7 @@
       </c>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6701,7 +5278,7 @@
       </c>
       <c r="K61" s="5"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6732,7 +5309,7 @@
       </c>
       <c r="K62" s="5"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6763,7 +5340,7 @@
       </c>
       <c r="K63" s="5"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6794,7 +5371,7 @@
       </c>
       <c r="K64" s="5"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6825,7 +5402,7 @@
       </c>
       <c r="K65" s="5"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6856,7 +5433,7 @@
       </c>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6887,7 +5464,7 @@
       </c>
       <c r="K67" s="5"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6918,7 +5495,7 @@
       </c>
       <c r="K68" s="5"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6949,7 +5526,7 @@
       </c>
       <c r="K69" s="5"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6980,7 +5557,7 @@
       </c>
       <c r="K70" s="5"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7011,7 +5588,7 @@
       </c>
       <c r="K71" s="5"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7042,7 +5619,7 @@
       </c>
       <c r="K72" s="5"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7073,7 +5650,7 @@
       </c>
       <c r="K73" s="5"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -7104,7 +5681,7 @@
       </c>
       <c r="K74" s="5"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -7135,7 +5712,7 @@
       </c>
       <c r="K75" s="5"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7166,7 +5743,7 @@
       </c>
       <c r="K76" s="5"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7197,7 +5774,7 @@
       </c>
       <c r="K77" s="5"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -7228,7 +5805,7 @@
       </c>
       <c r="K78" s="5"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7259,7 +5836,7 @@
       </c>
       <c r="K79" s="5"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7290,7 +5867,7 @@
       </c>
       <c r="K80" s="5"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7321,7 +5898,7 @@
       </c>
       <c r="K81" s="5"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7352,7 +5929,7 @@
       </c>
       <c r="K82" s="5"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7383,7 +5960,7 @@
       </c>
       <c r="K83" s="5"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7414,7 +5991,7 @@
       </c>
       <c r="K84" s="5"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7445,7 +6022,7 @@
       </c>
       <c r="K85" s="5"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7476,7 +6053,7 @@
       </c>
       <c r="K86" s="5"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7507,7 +6084,7 @@
       </c>
       <c r="K87" s="5"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7538,7 +6115,7 @@
       </c>
       <c r="K88" s="5"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7569,7 +6146,7 @@
       </c>
       <c r="K89" s="5"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7600,7 +6177,7 @@
       </c>
       <c r="K90" s="5"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7631,7 +6208,7 @@
       </c>
       <c r="K91" s="5"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7662,7 +6239,7 @@
       </c>
       <c r="K92" s="5"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7693,7 +6270,7 @@
       </c>
       <c r="K93" s="5"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7724,7 +6301,7 @@
       </c>
       <c r="K94" s="5"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7755,7 +6332,7 @@
       </c>
       <c r="K95" s="5"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7786,7 +6363,7 @@
       </c>
       <c r="K96" s="5"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7817,7 +6394,7 @@
       </c>
       <c r="K97" s="5"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7848,7 +6425,7 @@
       </c>
       <c r="K98" s="5"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7879,7 +6456,7 @@
       </c>
       <c r="K99" s="5"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7910,7 +6487,7 @@
       </c>
       <c r="K100" s="5"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7941,7 +6518,7 @@
       </c>
       <c r="K101" s="5"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7972,7 +6549,7 @@
       </c>
       <c r="K102" s="5"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -8003,7 +6580,7 @@
       </c>
       <c r="K103" s="5"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -8034,7 +6611,7 @@
       </c>
       <c r="K104" s="5"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -8065,7 +6642,7 @@
       </c>
       <c r="K105" s="5"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -8096,7 +6673,7 @@
       </c>
       <c r="K106" s="5"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -8127,7 +6704,7 @@
       </c>
       <c r="K107" s="5"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -8158,7 +6735,7 @@
       </c>
       <c r="K108" s="5"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -8189,7 +6766,7 @@
       </c>
       <c r="K109" s="5"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -8220,7 +6797,7 @@
       </c>
       <c r="K110" s="5"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -8251,7 +6828,7 @@
       </c>
       <c r="K111" s="5"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -8282,7 +6859,7 @@
       </c>
       <c r="K112" s="5"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -8313,7 +6890,7 @@
       </c>
       <c r="K113" s="5"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -8344,7 +6921,7 @@
       </c>
       <c r="K114" s="5"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -8375,7 +6952,7 @@
       </c>
       <c r="K115" s="5"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -8406,7 +6983,7 @@
       </c>
       <c r="K116" s="5"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -8437,7 +7014,7 @@
       </c>
       <c r="K117" s="5"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -8468,7 +7045,7 @@
       </c>
       <c r="K118" s="5"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -8499,7 +7076,7 @@
       </c>
       <c r="K119" s="5"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -8530,7 +7107,7 @@
       </c>
       <c r="K120" s="5"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -8561,7 +7138,7 @@
       </c>
       <c r="K121" s="5"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -8592,7 +7169,7 @@
       </c>
       <c r="K122" s="5"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -8623,7 +7200,7 @@
       </c>
       <c r="K123" s="5"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -8654,7 +7231,7 @@
       </c>
       <c r="K124" s="5"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -8685,7 +7262,7 @@
       </c>
       <c r="K125" s="5"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -8716,7 +7293,7 @@
       </c>
       <c r="K126" s="5"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -8747,7 +7324,7 @@
       </c>
       <c r="K127" s="5"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -8778,7 +7355,7 @@
       </c>
       <c r="K128" s="5"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -8809,7 +7386,7 @@
       </c>
       <c r="K129" s="5"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -8840,7 +7417,7 @@
       </c>
       <c r="K130" s="5"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -8871,7 +7448,7 @@
       </c>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -8902,7 +7479,7 @@
       </c>
       <c r="K132" s="5"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -8933,7 +7510,7 @@
       </c>
       <c r="K133" s="5"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -8964,7 +7541,7 @@
       </c>
       <c r="K134" s="5"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -8995,7 +7572,7 @@
       </c>
       <c r="K135" s="5"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -9026,7 +7603,7 @@
       </c>
       <c r="K136" s="5"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -9057,7 +7634,7 @@
       </c>
       <c r="K137" s="5"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -9088,7 +7665,7 @@
       </c>
       <c r="K138" s="5"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -9119,7 +7696,7 @@
       </c>
       <c r="K139" s="5"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -9150,7 +7727,7 @@
       </c>
       <c r="K140" s="5"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -9181,7 +7758,7 @@
       </c>
       <c r="K141" s="5"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -9212,7 +7789,7 @@
       </c>
       <c r="K142" s="5"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -9243,7 +7820,7 @@
       </c>
       <c r="K143" s="5"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -9274,7 +7851,7 @@
       </c>
       <c r="K144" s="5"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -9305,7 +7882,7 @@
       </c>
       <c r="K145" s="5"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -9336,7 +7913,7 @@
       </c>
       <c r="K146" s="5"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -9367,7 +7944,7 @@
       </c>
       <c r="K147" s="5"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -9398,7 +7975,7 @@
       </c>
       <c r="K148" s="5"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -9429,7 +8006,7 @@
       </c>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -9460,7 +8037,7 @@
       </c>
       <c r="K150" s="5"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -9491,7 +8068,7 @@
       </c>
       <c r="K151" s="5"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -9522,7 +8099,7 @@
       </c>
       <c r="K152" s="5"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -9553,7 +8130,7 @@
       </c>
       <c r="K153" s="5"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -9584,7 +8161,7 @@
       </c>
       <c r="K154" s="5"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -9615,7 +8192,7 @@
       </c>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -9646,7 +8223,7 @@
       </c>
       <c r="K156" s="5"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -9677,7 +8254,7 @@
       </c>
       <c r="K157" s="5"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -9708,7 +8285,7 @@
       </c>
       <c r="K158" s="5"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -9739,7 +8316,7 @@
       </c>
       <c r="K159" s="5"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -9770,7 +8347,7 @@
       </c>
       <c r="K160" s="5"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -9801,7 +8378,7 @@
       </c>
       <c r="K161" s="5"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -9832,7 +8409,7 @@
       </c>
       <c r="K162" s="5"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -9863,7 +8440,7 @@
       </c>
       <c r="K163" s="5"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -9894,7 +8471,7 @@
       </c>
       <c r="K164" s="5"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -9925,7 +8502,7 @@
       </c>
       <c r="K165" s="5"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -9956,7 +8533,7 @@
       </c>
       <c r="K166" s="5"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -9987,7 +8564,7 @@
       </c>
       <c r="K167" s="5"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -10018,7 +8595,7 @@
       </c>
       <c r="K168" s="5"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -10049,7 +8626,7 @@
       </c>
       <c r="K169" s="5"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -10080,7 +8657,7 @@
       </c>
       <c r="K170" s="5"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -10111,7 +8688,7 @@
       </c>
       <c r="K171" s="5"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -10142,7 +8719,7 @@
       </c>
       <c r="K172" s="5"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -10173,7 +8750,7 @@
       </c>
       <c r="K173" s="5"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -10204,7 +8781,7 @@
       </c>
       <c r="K174" s="5"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -10235,7 +8812,7 @@
       </c>
       <c r="K175" s="5"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -10266,7 +8843,7 @@
       </c>
       <c r="K176" s="5"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -10297,7 +8874,7 @@
       </c>
       <c r="K177" s="5"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -10328,7 +8905,7 @@
       </c>
       <c r="K178" s="5"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -10359,7 +8936,7 @@
       </c>
       <c r="K179" s="5"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -10390,7 +8967,7 @@
       </c>
       <c r="K180" s="5"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -10421,7 +8998,7 @@
       </c>
       <c r="K181" s="5"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -10452,7 +9029,7 @@
       </c>
       <c r="K182" s="5"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -10483,7 +9060,7 @@
       </c>
       <c r="K183" s="5"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -10514,7 +9091,7 @@
       </c>
       <c r="K184" s="5"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -10545,7 +9122,7 @@
       </c>
       <c r="K185" s="5"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -10576,7 +9153,7 @@
       </c>
       <c r="K186" s="5"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -10607,7 +9184,7 @@
       </c>
       <c r="K187" s="5"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -10638,7 +9215,7 @@
       </c>
       <c r="K188" s="5"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -10669,7 +9246,7 @@
       </c>
       <c r="K189" s="5"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -10700,7 +9277,7 @@
       </c>
       <c r="K190" s="5"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -10731,7 +9308,7 @@
       </c>
       <c r="K191" s="5"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -10762,7 +9339,7 @@
       </c>
       <c r="K192" s="5"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -10793,7 +9370,7 @@
       </c>
       <c r="K193" s="5"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -10824,7 +9401,7 @@
       </c>
       <c r="K194" s="5"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -10855,7 +9432,7 @@
       </c>
       <c r="K195" s="5"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -10886,7 +9463,7 @@
       </c>
       <c r="K196" s="5"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -10917,7 +9494,7 @@
       </c>
       <c r="K197" s="5"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -10948,7 +9525,7 @@
       </c>
       <c r="K198" s="5"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -10979,7 +9556,7 @@
       </c>
       <c r="K199" s="5"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -11010,7 +9587,7 @@
       </c>
       <c r="K200" s="5"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -11041,7 +9618,7 @@
       </c>
       <c r="K201" s="5"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -11072,7 +9649,7 @@
       </c>
       <c r="K202" s="5"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -11103,7 +9680,7 @@
       </c>
       <c r="K203" s="5"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -11134,7 +9711,7 @@
       </c>
       <c r="K204" s="5"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -11165,7 +9742,7 @@
       </c>
       <c r="K205" s="5"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -11196,7 +9773,7 @@
       </c>
       <c r="K206" s="5"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -11227,7 +9804,7 @@
       </c>
       <c r="K207" s="5"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -11258,7 +9835,7 @@
       </c>
       <c r="K208" s="5"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -11289,7 +9866,7 @@
       </c>
       <c r="K209" s="5"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -11320,7 +9897,7 @@
       </c>
       <c r="K210" s="5"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -11351,7 +9928,7 @@
       </c>
       <c r="K211" s="5"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -11382,7 +9959,7 @@
       </c>
       <c r="K212" s="5"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -11413,7 +9990,7 @@
       </c>
       <c r="K213" s="5"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -11444,7 +10021,7 @@
       </c>
       <c r="K214" s="5"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
